--- a/Tablolar/Tablo 5.xlsx
+++ b/Tablolar/Tablo 5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="24">
   <si>
     <t/>
   </si>
@@ -23,18 +23,6 @@
   </si>
   <si>
     <t>Program Çıktısı</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>15.79</t>
-  </si>
-  <si>
-    <t>15.56</t>
-  </si>
-  <si>
-    <t>12.50</t>
   </si>
   <si>
     <t>Başarı Oranı</t>
@@ -61,364 +49,40 @@
     <t>Öğrenci NO: 2*******4</t>
   </si>
   <si>
-    <t>17.50</t>
-  </si>
-  <si>
-    <t>16.79</t>
-  </si>
-  <si>
-    <t>16.56</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
     <t>Öğrenci NO: 2*******6</t>
-  </si>
-  <si>
-    <t>18.50</t>
-  </si>
-  <si>
-    <t>17.79</t>
-  </si>
-  <si>
-    <t>17.56</t>
-  </si>
-  <si>
-    <t>14.50</t>
   </si>
   <si>
     <t>Öğrenci NO: 2*******7</t>
   </si>
   <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>18.79</t>
-  </si>
-  <si>
-    <t>18.56</t>
-  </si>
-  <si>
-    <t>15.50</t>
-  </si>
-  <si>
     <t>Öğrenci NO: 2******11</t>
-  </si>
-  <si>
-    <t>20.50</t>
-  </si>
-  <si>
-    <t>19.79</t>
-  </si>
-  <si>
-    <t>19.56</t>
   </si>
   <si>
     <t>Öğrenci NO: 2*******3</t>
   </si>
   <si>
-    <t>21.50</t>
-  </si>
-  <si>
-    <t>20.79</t>
-  </si>
-  <si>
-    <t>20.56</t>
-  </si>
-  <si>
-    <t>22.50</t>
-  </si>
-  <si>
-    <t>21.79</t>
-  </si>
-  <si>
-    <t>21.56</t>
-  </si>
-  <si>
     <t>Öğrenci NO: 2*******5</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>22.79</t>
-  </si>
-  <si>
-    <t>22.56</t>
   </si>
   <si>
     <t>Öğrenci NO: 2******16</t>
   </si>
   <si>
-    <t>24.50</t>
-  </si>
-  <si>
-    <t>23.79</t>
-  </si>
-  <si>
-    <t>23.56</t>
-  </si>
-  <si>
     <t>Öğrenci NO: 2******17</t>
-  </si>
-  <si>
-    <t>25.50</t>
-  </si>
-  <si>
-    <t>24.79</t>
-  </si>
-  <si>
-    <t>24.56</t>
   </si>
   <si>
     <t>Öğrenci NO: 2*******9</t>
   </si>
   <si>
-    <t>26.50</t>
-  </si>
-  <si>
-    <t>25.79</t>
-  </si>
-  <si>
-    <t>25.56</t>
-  </si>
-  <si>
     <t>Öğrenci NO: 2******21</t>
-  </si>
-  <si>
-    <t>27.50</t>
-  </si>
-  <si>
-    <t>26.79</t>
-  </si>
-  <si>
-    <t>26.56</t>
-  </si>
-  <si>
-    <t>28.50</t>
-  </si>
-  <si>
-    <t>27.79</t>
-  </si>
-  <si>
-    <t>27.56</t>
-  </si>
-  <si>
-    <t>29.50</t>
-  </si>
-  <si>
-    <t>28.79</t>
-  </si>
-  <si>
-    <t>28.56</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>29.79</t>
-  </si>
-  <si>
-    <t>29.56</t>
   </si>
   <si>
     <t>Öğrenci NO: 2******26</t>
   </si>
   <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>30.79</t>
-  </si>
-  <si>
-    <t>30.56</t>
-  </si>
-  <si>
     <t>Öğrenci NO: 2******27</t>
   </si>
   <si>
-    <t>32.50</t>
-  </si>
-  <si>
-    <t>31.79</t>
-  </si>
-  <si>
-    <t>31.56</t>
-  </si>
-  <si>
     <t>Öğrenci NO: 2******19</t>
-  </si>
-  <si>
-    <t>33.50</t>
-  </si>
-  <si>
-    <t>32.79</t>
-  </si>
-  <si>
-    <t>32.56</t>
-  </si>
-  <si>
-    <t>34.50</t>
-  </si>
-  <si>
-    <t>33.79</t>
-  </si>
-  <si>
-    <t>33.56</t>
-  </si>
-  <si>
-    <t>35.50</t>
-  </si>
-  <si>
-    <t>34.79</t>
-  </si>
-  <si>
-    <t>34.56</t>
-  </si>
-  <si>
-    <t>36.50</t>
-  </si>
-  <si>
-    <t>35.79</t>
-  </si>
-  <si>
-    <t>35.56</t>
-  </si>
-  <si>
-    <t>37.50</t>
-  </si>
-  <si>
-    <t>36.79</t>
-  </si>
-  <si>
-    <t>36.56</t>
-  </si>
-  <si>
-    <t>38.50</t>
-  </si>
-  <si>
-    <t>37.79</t>
-  </si>
-  <si>
-    <t>37.56</t>
-  </si>
-  <si>
-    <t>39.50</t>
-  </si>
-  <si>
-    <t>38.79</t>
-  </si>
-  <si>
-    <t>38.56</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t>39.79</t>
-  </si>
-  <si>
-    <t>39.56</t>
-  </si>
-  <si>
-    <t>41.50</t>
-  </si>
-  <si>
-    <t>40.79</t>
-  </si>
-  <si>
-    <t>40.56</t>
-  </si>
-  <si>
-    <t>42.50</t>
-  </si>
-  <si>
-    <t>41.79</t>
-  </si>
-  <si>
-    <t>41.56</t>
-  </si>
-  <si>
-    <t>43.50</t>
-  </si>
-  <si>
-    <t>42.79</t>
-  </si>
-  <si>
-    <t>42.56</t>
-  </si>
-  <si>
-    <t>44.50</t>
-  </si>
-  <si>
-    <t>43.79</t>
-  </si>
-  <si>
-    <t>43.56</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>44.79</t>
-  </si>
-  <si>
-    <t>44.56</t>
-  </si>
-  <si>
-    <t>46.50</t>
-  </si>
-  <si>
-    <t>45.79</t>
-  </si>
-  <si>
-    <t>45.56</t>
-  </si>
-  <si>
-    <t>47.50</t>
-  </si>
-  <si>
-    <t>46.79</t>
-  </si>
-  <si>
-    <t>46.56</t>
-  </si>
-  <si>
-    <t>48.50</t>
-  </si>
-  <si>
-    <t>47.79</t>
-  </si>
-  <si>
-    <t>47.56</t>
-  </si>
-  <si>
-    <t>49.50</t>
-  </si>
-  <si>
-    <t>48.79</t>
-  </si>
-  <si>
-    <t>48.56</t>
-  </si>
-  <si>
-    <t>50.50</t>
-  </si>
-  <si>
-    <t>49.79</t>
-  </si>
-  <si>
-    <t>49.56</t>
-  </si>
-  <si>
-    <t>51.50</t>
-  </si>
-  <si>
-    <t>50.79</t>
-  </si>
-  <si>
-    <t>50.56</t>
   </si>
 </sst>
 </file>
@@ -834,173 +498,173 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>16.5</v>
+        <v>NaN</v>
       </c>
       <c r="D4" s="1">
-        <v>15.79</v>
+        <v>NaN</v>
       </c>
       <c r="E4" s="1">
-        <v>15.56</v>
+        <v>NaN</v>
       </c>
       <c r="F4" s="1">
-        <v>12.5</v>
+        <v>NaN</v>
       </c>
       <c r="G4" s="1">
-        <v>15.37</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>16.5</v>
+        <v>NaN</v>
       </c>
       <c r="D5" s="1">
-        <v>15.79</v>
+        <v>NaN</v>
       </c>
       <c r="E5" s="1">
-        <v>15.56</v>
+        <v>NaN</v>
       </c>
       <c r="F5" s="1">
-        <v>12.5</v>
+        <v>NaN</v>
       </c>
       <c r="G5" s="1">
-        <v>15.37</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>16.5</v>
+        <v>NaN</v>
       </c>
       <c r="D6" s="1">
-        <v>15.79</v>
+        <v>NaN</v>
       </c>
       <c r="E6" s="1">
-        <v>15.56</v>
+        <v>NaN</v>
       </c>
       <c r="F6" s="1">
-        <v>12.5</v>
+        <v>NaN</v>
       </c>
       <c r="G6" s="1">
-        <v>15.37</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>16.5</v>
+        <v>NaN</v>
       </c>
       <c r="D7" s="1">
-        <v>15.79</v>
+        <v>NaN</v>
       </c>
       <c r="E7" s="1">
-        <v>15.56</v>
+        <v>NaN</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G7" s="1">
-        <v>16.0875</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>16.5</v>
+        <v>NaN</v>
       </c>
       <c r="D8" s="1">
-        <v>15.79</v>
+        <v>NaN</v>
       </c>
       <c r="E8" s="1">
-        <v>15.56</v>
+        <v>NaN</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G8" s="1">
-        <v>16.0875</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>16.5</v>
+        <v>NaN</v>
       </c>
       <c r="D9" s="1">
-        <v>15.79</v>
+        <v>NaN</v>
       </c>
       <c r="E9" s="1">
-        <v>15.56</v>
+        <v>NaN</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G9" s="1">
-        <v>16.0875</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1014,173 +678,173 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>17.5</v>
+        <v>NaN</v>
       </c>
       <c r="D13" s="1">
-        <v>16.79</v>
+        <v>NaN</v>
       </c>
       <c r="E13" s="1">
-        <v>16.56</v>
+        <v>NaN</v>
       </c>
       <c r="F13" s="1">
-        <v>13.5</v>
+        <v>NaN</v>
       </c>
       <c r="G13" s="1">
-        <v>16.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>17.5</v>
+        <v>NaN</v>
       </c>
       <c r="D14" s="1">
-        <v>16.79</v>
+        <v>NaN</v>
       </c>
       <c r="E14" s="1">
-        <v>16.56</v>
+        <v>NaN</v>
       </c>
       <c r="F14" s="1">
-        <v>13.5</v>
+        <v>NaN</v>
       </c>
       <c r="G14" s="1">
-        <v>16.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>17.5</v>
+        <v>NaN</v>
       </c>
       <c r="D15" s="1">
-        <v>16.79</v>
+        <v>NaN</v>
       </c>
       <c r="E15" s="1">
-        <v>16.56</v>
+        <v>NaN</v>
       </c>
       <c r="F15" s="1">
-        <v>13.5</v>
+        <v>NaN</v>
       </c>
       <c r="G15" s="1">
-        <v>16.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>17.5</v>
+        <v>NaN</v>
       </c>
       <c r="D16" s="1">
-        <v>16.79</v>
+        <v>NaN</v>
       </c>
       <c r="E16" s="1">
-        <v>16.56</v>
+        <v>NaN</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G16" s="1">
-        <v>17.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>17.5</v>
+        <v>NaN</v>
       </c>
       <c r="D17" s="1">
-        <v>16.79</v>
+        <v>NaN</v>
       </c>
       <c r="E17" s="1">
-        <v>16.56</v>
+        <v>NaN</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G17" s="1">
-        <v>17.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>17.5</v>
+        <v>NaN</v>
       </c>
       <c r="D18" s="1">
-        <v>16.79</v>
+        <v>NaN</v>
       </c>
       <c r="E18" s="1">
-        <v>16.56</v>
+        <v>NaN</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G18" s="1">
-        <v>17.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1194,173 +858,173 @@
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>18.5</v>
+        <v>NaN</v>
       </c>
       <c r="D22" s="1">
-        <v>17.79</v>
+        <v>NaN</v>
       </c>
       <c r="E22" s="1">
-        <v>17.56</v>
+        <v>NaN</v>
       </c>
       <c r="F22" s="1">
-        <v>14.5</v>
+        <v>NaN</v>
       </c>
       <c r="G22" s="1">
-        <v>17.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>18.5</v>
+        <v>NaN</v>
       </c>
       <c r="D23" s="1">
-        <v>17.79</v>
+        <v>NaN</v>
       </c>
       <c r="E23" s="1">
-        <v>17.56</v>
+        <v>NaN</v>
       </c>
       <c r="F23" s="1">
-        <v>14.5</v>
+        <v>NaN</v>
       </c>
       <c r="G23" s="1">
-        <v>17.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
-        <v>18.5</v>
+        <v>NaN</v>
       </c>
       <c r="D24" s="1">
-        <v>17.79</v>
+        <v>NaN</v>
       </c>
       <c r="E24" s="1">
-        <v>17.56</v>
+        <v>NaN</v>
       </c>
       <c r="F24" s="1">
-        <v>14.5</v>
+        <v>NaN</v>
       </c>
       <c r="G24" s="1">
-        <v>17.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>18.5</v>
+        <v>NaN</v>
       </c>
       <c r="D25" s="1">
-        <v>17.79</v>
+        <v>NaN</v>
       </c>
       <c r="E25" s="1">
-        <v>17.56</v>
+        <v>NaN</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G25" s="1">
-        <v>18.0875</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>18.5</v>
+        <v>NaN</v>
       </c>
       <c r="D26" s="1">
-        <v>17.79</v>
+        <v>NaN</v>
       </c>
       <c r="E26" s="1">
-        <v>17.56</v>
+        <v>NaN</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G26" s="1">
-        <v>18.0875</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>18.5</v>
+        <v>NaN</v>
       </c>
       <c r="D27" s="1">
-        <v>17.79</v>
+        <v>NaN</v>
       </c>
       <c r="E27" s="1">
-        <v>17.56</v>
+        <v>NaN</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G27" s="1">
-        <v>18.0875</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1374,173 +1038,173 @@
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>29</v>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>19.5</v>
+        <v>NaN</v>
       </c>
       <c r="D31" s="1">
-        <v>18.79</v>
+        <v>NaN</v>
       </c>
       <c r="E31" s="1">
-        <v>18.56</v>
+        <v>NaN</v>
       </c>
       <c r="F31" s="1">
-        <v>15.5</v>
+        <v>NaN</v>
       </c>
       <c r="G31" s="1">
-        <v>18.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>19.5</v>
+        <v>NaN</v>
       </c>
       <c r="D32" s="1">
-        <v>18.79</v>
+        <v>NaN</v>
       </c>
       <c r="E32" s="1">
-        <v>18.56</v>
+        <v>NaN</v>
       </c>
       <c r="F32" s="1">
-        <v>15.5</v>
+        <v>NaN</v>
       </c>
       <c r="G32" s="1">
-        <v>18.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>19.5</v>
+        <v>NaN</v>
       </c>
       <c r="D33" s="1">
-        <v>18.79</v>
+        <v>NaN</v>
       </c>
       <c r="E33" s="1">
-        <v>18.56</v>
+        <v>NaN</v>
       </c>
       <c r="F33" s="1">
-        <v>15.5</v>
+        <v>NaN</v>
       </c>
       <c r="G33" s="1">
-        <v>18.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>19.5</v>
+        <v>NaN</v>
       </c>
       <c r="D34" s="1">
-        <v>18.79</v>
+        <v>NaN</v>
       </c>
       <c r="E34" s="1">
-        <v>18.56</v>
+        <v>NaN</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G34" s="1">
-        <v>19.0875</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>19.5</v>
+        <v>NaN</v>
       </c>
       <c r="D35" s="1">
-        <v>18.79</v>
+        <v>NaN</v>
       </c>
       <c r="E35" s="1">
-        <v>18.56</v>
+        <v>NaN</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G35" s="1">
-        <v>19.0875</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>19.5</v>
+        <v>NaN</v>
       </c>
       <c r="D36" s="1">
-        <v>18.79</v>
+        <v>NaN</v>
       </c>
       <c r="E36" s="1">
-        <v>18.56</v>
+        <v>NaN</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G36" s="1">
-        <v>19.0875</v>
+        <v>0</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1554,173 +1218,173 @@
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
-        <v>20.5</v>
+        <v>NaN</v>
       </c>
       <c r="D40" s="1">
-        <v>19.79</v>
+        <v>NaN</v>
       </c>
       <c r="E40" s="1">
-        <v>19.56</v>
+        <v>NaN</v>
       </c>
       <c r="F40" s="1">
-        <v>16.5</v>
+        <v>NaN</v>
       </c>
       <c r="G40" s="1">
-        <v>19.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>20.5</v>
+        <v>NaN</v>
       </c>
       <c r="D41" s="1">
-        <v>19.79</v>
+        <v>NaN</v>
       </c>
       <c r="E41" s="1">
-        <v>19.56</v>
+        <v>NaN</v>
       </c>
       <c r="F41" s="1">
-        <v>16.5</v>
+        <v>NaN</v>
       </c>
       <c r="G41" s="1">
-        <v>19.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>20.5</v>
+        <v>NaN</v>
       </c>
       <c r="D42" s="1">
-        <v>19.79</v>
+        <v>NaN</v>
       </c>
       <c r="E42" s="1">
-        <v>19.56</v>
+        <v>NaN</v>
       </c>
       <c r="F42" s="1">
-        <v>16.5</v>
+        <v>NaN</v>
       </c>
       <c r="G42" s="1">
-        <v>19.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>20.5</v>
+        <v>NaN</v>
       </c>
       <c r="D43" s="1">
-        <v>19.79</v>
+        <v>NaN</v>
       </c>
       <c r="E43" s="1">
-        <v>19.56</v>
+        <v>NaN</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G43" s="1">
-        <v>20.0875</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>20.5</v>
+        <v>NaN</v>
       </c>
       <c r="D44" s="1">
-        <v>19.79</v>
+        <v>NaN</v>
       </c>
       <c r="E44" s="1">
-        <v>19.56</v>
+        <v>NaN</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G44" s="1">
-        <v>20.0875</v>
+        <v>0</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>20.5</v>
+        <v>NaN</v>
       </c>
       <c r="D45" s="1">
-        <v>19.79</v>
+        <v>NaN</v>
       </c>
       <c r="E45" s="1">
-        <v>19.56</v>
+        <v>NaN</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G45" s="1">
-        <v>20.0875</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1734,173 +1398,173 @@
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>16</v>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>21.5</v>
+        <v>NaN</v>
       </c>
       <c r="D49" s="1">
-        <v>20.79</v>
+        <v>NaN</v>
       </c>
       <c r="E49" s="1">
-        <v>20.56</v>
+        <v>NaN</v>
       </c>
       <c r="F49" s="1">
-        <v>17.5</v>
+        <v>NaN</v>
       </c>
       <c r="G49" s="1">
-        <v>20.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>21.5</v>
+        <v>NaN</v>
       </c>
       <c r="D50" s="1">
-        <v>20.79</v>
+        <v>NaN</v>
       </c>
       <c r="E50" s="1">
-        <v>20.56</v>
+        <v>NaN</v>
       </c>
       <c r="F50" s="1">
-        <v>17.5</v>
+        <v>NaN</v>
       </c>
       <c r="G50" s="1">
-        <v>20.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1">
-        <v>21.5</v>
+        <v>NaN</v>
       </c>
       <c r="D51" s="1">
-        <v>20.79</v>
+        <v>NaN</v>
       </c>
       <c r="E51" s="1">
-        <v>20.56</v>
+        <v>NaN</v>
       </c>
       <c r="F51" s="1">
-        <v>17.5</v>
+        <v>NaN</v>
       </c>
       <c r="G51" s="1">
-        <v>20.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>21.5</v>
+        <v>NaN</v>
       </c>
       <c r="D52" s="1">
-        <v>20.79</v>
+        <v>NaN</v>
       </c>
       <c r="E52" s="1">
-        <v>20.56</v>
+        <v>NaN</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G52" s="1">
-        <v>21.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>21.5</v>
+        <v>NaN</v>
       </c>
       <c r="D53" s="1">
-        <v>20.79</v>
+        <v>NaN</v>
       </c>
       <c r="E53" s="1">
-        <v>20.56</v>
+        <v>NaN</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G53" s="1">
-        <v>21.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
-        <v>21.5</v>
+        <v>NaN</v>
       </c>
       <c r="D54" s="1">
-        <v>20.79</v>
+        <v>NaN</v>
       </c>
       <c r="E54" s="1">
-        <v>20.56</v>
+        <v>NaN</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G54" s="1">
-        <v>21.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1914,173 +1578,173 @@
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>21</v>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B58" s="1">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>22.5</v>
+        <v>NaN</v>
       </c>
       <c r="D58" s="1">
-        <v>21.79</v>
+        <v>NaN</v>
       </c>
       <c r="E58" s="1">
-        <v>21.56</v>
+        <v>NaN</v>
       </c>
       <c r="F58" s="1">
-        <v>18.5</v>
+        <v>NaN</v>
       </c>
       <c r="G58" s="1">
-        <v>21.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>22.5</v>
+        <v>NaN</v>
       </c>
       <c r="D59" s="1">
-        <v>21.79</v>
+        <v>NaN</v>
       </c>
       <c r="E59" s="1">
-        <v>21.56</v>
+        <v>NaN</v>
       </c>
       <c r="F59" s="1">
-        <v>18.5</v>
+        <v>NaN</v>
       </c>
       <c r="G59" s="1">
-        <v>21.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1">
-        <v>22.5</v>
+        <v>NaN</v>
       </c>
       <c r="D60" s="1">
-        <v>21.79</v>
+        <v>NaN</v>
       </c>
       <c r="E60" s="1">
-        <v>21.56</v>
+        <v>NaN</v>
       </c>
       <c r="F60" s="1">
-        <v>18.5</v>
+        <v>NaN</v>
       </c>
       <c r="G60" s="1">
-        <v>21.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B61" s="1">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>22.5</v>
+        <v>NaN</v>
       </c>
       <c r="D61" s="1">
-        <v>21.79</v>
+        <v>NaN</v>
       </c>
       <c r="E61" s="1">
-        <v>21.56</v>
+        <v>NaN</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G61" s="1">
-        <v>22.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>22.5</v>
+        <v>NaN</v>
       </c>
       <c r="D62" s="1">
-        <v>21.79</v>
+        <v>NaN</v>
       </c>
       <c r="E62" s="1">
-        <v>21.56</v>
+        <v>NaN</v>
       </c>
       <c r="F62" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G62" s="1">
-        <v>22.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B63" s="1">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
-        <v>22.5</v>
+        <v>NaN</v>
       </c>
       <c r="D63" s="1">
-        <v>21.79</v>
+        <v>NaN</v>
       </c>
       <c r="E63" s="1">
-        <v>21.56</v>
+        <v>NaN</v>
       </c>
       <c r="F63" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G63" s="1">
-        <v>22.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2094,173 +1758,173 @@
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>26</v>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B67" s="1">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="C67" s="1">
-        <v>23.5</v>
+        <v>NaN</v>
       </c>
       <c r="D67" s="1">
-        <v>22.79</v>
+        <v>NaN</v>
       </c>
       <c r="E67" s="1">
-        <v>22.56</v>
+        <v>NaN</v>
       </c>
       <c r="F67" s="1">
-        <v>19.5</v>
+        <v>NaN</v>
       </c>
       <c r="G67" s="1">
-        <v>22.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>23.5</v>
+        <v>NaN</v>
       </c>
       <c r="D68" s="1">
-        <v>22.79</v>
+        <v>NaN</v>
       </c>
       <c r="E68" s="1">
-        <v>22.56</v>
+        <v>NaN</v>
       </c>
       <c r="F68" s="1">
-        <v>19.5</v>
+        <v>NaN</v>
       </c>
       <c r="G68" s="1">
-        <v>22.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>23.5</v>
+        <v>NaN</v>
       </c>
       <c r="D69" s="1">
-        <v>22.79</v>
+        <v>NaN</v>
       </c>
       <c r="E69" s="1">
-        <v>22.56</v>
+        <v>NaN</v>
       </c>
       <c r="F69" s="1">
-        <v>19.5</v>
+        <v>NaN</v>
       </c>
       <c r="G69" s="1">
-        <v>22.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B70" s="1">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>23.5</v>
+        <v>NaN</v>
       </c>
       <c r="D70" s="1">
-        <v>22.79</v>
+        <v>NaN</v>
       </c>
       <c r="E70" s="1">
-        <v>22.56</v>
+        <v>NaN</v>
       </c>
       <c r="F70" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G70" s="1">
-        <v>23.0875</v>
+        <v>0</v>
       </c>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>23.5</v>
+        <v>NaN</v>
       </c>
       <c r="D71" s="1">
-        <v>22.79</v>
+        <v>NaN</v>
       </c>
       <c r="E71" s="1">
-        <v>22.56</v>
+        <v>NaN</v>
       </c>
       <c r="F71" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G71" s="1">
-        <v>23.0875</v>
+        <v>0</v>
       </c>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B72" s="1">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>23.5</v>
+        <v>NaN</v>
       </c>
       <c r="D72" s="1">
-        <v>22.79</v>
+        <v>NaN</v>
       </c>
       <c r="E72" s="1">
-        <v>22.56</v>
+        <v>NaN</v>
       </c>
       <c r="F72" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G72" s="1">
-        <v>23.0875</v>
+        <v>0</v>
       </c>
       <c r="H72" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2274,173 +1938,173 @@
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>31</v>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B76" s="1">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>24.5</v>
+        <v>NaN</v>
       </c>
       <c r="D76" s="1">
-        <v>23.79</v>
+        <v>NaN</v>
       </c>
       <c r="E76" s="1">
-        <v>23.56</v>
+        <v>NaN</v>
       </c>
       <c r="F76" s="1">
-        <v>20.5</v>
+        <v>NaN</v>
       </c>
       <c r="G76" s="1">
-        <v>23.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>24.5</v>
+        <v>NaN</v>
       </c>
       <c r="D77" s="1">
-        <v>23.79</v>
+        <v>NaN</v>
       </c>
       <c r="E77" s="1">
-        <v>23.56</v>
+        <v>NaN</v>
       </c>
       <c r="F77" s="1">
-        <v>20.5</v>
+        <v>NaN</v>
       </c>
       <c r="G77" s="1">
-        <v>23.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B78" s="1">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>24.5</v>
+        <v>NaN</v>
       </c>
       <c r="D78" s="1">
-        <v>23.79</v>
+        <v>NaN</v>
       </c>
       <c r="E78" s="1">
-        <v>23.56</v>
+        <v>NaN</v>
       </c>
       <c r="F78" s="1">
-        <v>20.5</v>
+        <v>NaN</v>
       </c>
       <c r="G78" s="1">
-        <v>23.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B79" s="1">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>24.5</v>
+        <v>NaN</v>
       </c>
       <c r="D79" s="1">
-        <v>23.79</v>
+        <v>NaN</v>
       </c>
       <c r="E79" s="1">
-        <v>23.56</v>
+        <v>NaN</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G79" s="1">
-        <v>24.0875</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B80" s="1">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="C80" s="1">
-        <v>24.5</v>
+        <v>NaN</v>
       </c>
       <c r="D80" s="1">
-        <v>23.79</v>
+        <v>NaN</v>
       </c>
       <c r="E80" s="1">
-        <v>23.56</v>
+        <v>NaN</v>
       </c>
       <c r="F80" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G80" s="1">
-        <v>24.0875</v>
+        <v>0</v>
       </c>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B81" s="1">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1">
-        <v>24.5</v>
+        <v>NaN</v>
       </c>
       <c r="D81" s="1">
-        <v>23.79</v>
+        <v>NaN</v>
       </c>
       <c r="E81" s="1">
-        <v>23.56</v>
+        <v>NaN</v>
       </c>
       <c r="F81" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G81" s="1">
-        <v>24.0875</v>
+        <v>0</v>
       </c>
       <c r="H81" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2454,173 +2118,173 @@
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>35</v>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B85" s="1">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>25.5</v>
+        <v>NaN</v>
       </c>
       <c r="D85" s="1">
-        <v>24.79</v>
+        <v>NaN</v>
       </c>
       <c r="E85" s="1">
-        <v>24.56</v>
+        <v>NaN</v>
       </c>
       <c r="F85" s="1">
-        <v>21.5</v>
+        <v>NaN</v>
       </c>
       <c r="G85" s="1">
-        <v>24.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B86" s="1">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>25.5</v>
+        <v>NaN</v>
       </c>
       <c r="D86" s="1">
-        <v>24.79</v>
+        <v>NaN</v>
       </c>
       <c r="E86" s="1">
-        <v>24.56</v>
+        <v>NaN</v>
       </c>
       <c r="F86" s="1">
-        <v>21.5</v>
+        <v>NaN</v>
       </c>
       <c r="G86" s="1">
-        <v>24.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>25.5</v>
+        <v>NaN</v>
       </c>
       <c r="D87" s="1">
-        <v>24.79</v>
+        <v>NaN</v>
       </c>
       <c r="E87" s="1">
-        <v>24.56</v>
+        <v>NaN</v>
       </c>
       <c r="F87" s="1">
-        <v>21.5</v>
+        <v>NaN</v>
       </c>
       <c r="G87" s="1">
-        <v>24.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B88" s="1">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>25.5</v>
+        <v>NaN</v>
       </c>
       <c r="D88" s="1">
-        <v>24.79</v>
+        <v>NaN</v>
       </c>
       <c r="E88" s="1">
-        <v>24.56</v>
+        <v>NaN</v>
       </c>
       <c r="F88" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G88" s="1">
-        <v>25.0875</v>
+        <v>0</v>
       </c>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B89" s="1">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>25.5</v>
+        <v>NaN</v>
       </c>
       <c r="D89" s="1">
-        <v>24.79</v>
+        <v>NaN</v>
       </c>
       <c r="E89" s="1">
-        <v>24.56</v>
+        <v>NaN</v>
       </c>
       <c r="F89" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G89" s="1">
-        <v>25.0875</v>
+        <v>0</v>
       </c>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B90" s="1">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>25.5</v>
+        <v>NaN</v>
       </c>
       <c r="D90" s="1">
-        <v>24.79</v>
+        <v>NaN</v>
       </c>
       <c r="E90" s="1">
-        <v>24.56</v>
+        <v>NaN</v>
       </c>
       <c r="F90" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G90" s="1">
-        <v>25.0875</v>
+        <v>0</v>
       </c>
       <c r="H90" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2634,173 +2298,173 @@
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>38</v>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B94" s="1">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1">
-        <v>26.5</v>
+        <v>NaN</v>
       </c>
       <c r="D94" s="1">
-        <v>25.79</v>
+        <v>NaN</v>
       </c>
       <c r="E94" s="1">
-        <v>25.56</v>
+        <v>NaN</v>
       </c>
       <c r="F94" s="1">
-        <v>22.5</v>
+        <v>NaN</v>
       </c>
       <c r="G94" s="1">
-        <v>25.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B95" s="1">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
-        <v>26.5</v>
+        <v>NaN</v>
       </c>
       <c r="D95" s="1">
-        <v>25.79</v>
+        <v>NaN</v>
       </c>
       <c r="E95" s="1">
-        <v>25.56</v>
+        <v>NaN</v>
       </c>
       <c r="F95" s="1">
-        <v>22.5</v>
+        <v>NaN</v>
       </c>
       <c r="G95" s="1">
-        <v>25.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1">
-        <v>26.5</v>
+        <v>NaN</v>
       </c>
       <c r="D96" s="1">
-        <v>25.79</v>
+        <v>NaN</v>
       </c>
       <c r="E96" s="1">
-        <v>25.56</v>
+        <v>NaN</v>
       </c>
       <c r="F96" s="1">
-        <v>22.5</v>
+        <v>NaN</v>
       </c>
       <c r="G96" s="1">
-        <v>25.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B97" s="1">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="C97" s="1">
-        <v>26.5</v>
+        <v>NaN</v>
       </c>
       <c r="D97" s="1">
-        <v>25.79</v>
+        <v>NaN</v>
       </c>
       <c r="E97" s="1">
-        <v>25.56</v>
+        <v>NaN</v>
       </c>
       <c r="F97" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G97" s="1">
-        <v>26.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B98" s="1">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1">
-        <v>26.5</v>
+        <v>NaN</v>
       </c>
       <c r="D98" s="1">
-        <v>25.79</v>
+        <v>NaN</v>
       </c>
       <c r="E98" s="1">
-        <v>25.56</v>
+        <v>NaN</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G98" s="1">
-        <v>26.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B99" s="1">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="C99" s="1">
-        <v>26.5</v>
+        <v>NaN</v>
       </c>
       <c r="D99" s="1">
-        <v>25.79</v>
+        <v>NaN</v>
       </c>
       <c r="E99" s="1">
-        <v>25.56</v>
+        <v>NaN</v>
       </c>
       <c r="F99" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G99" s="1">
-        <v>26.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H99" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2814,173 +2478,173 @@
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>42</v>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B103" s="1">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="C103" s="1">
-        <v>27.5</v>
+        <v>NaN</v>
       </c>
       <c r="D103" s="1">
-        <v>26.79</v>
+        <v>NaN</v>
       </c>
       <c r="E103" s="1">
-        <v>26.56</v>
+        <v>NaN</v>
       </c>
       <c r="F103" s="1">
-        <v>23.5</v>
+        <v>NaN</v>
       </c>
       <c r="G103" s="1">
-        <v>26.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B104" s="1">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="C104" s="1">
-        <v>27.5</v>
+        <v>NaN</v>
       </c>
       <c r="D104" s="1">
-        <v>26.79</v>
+        <v>NaN</v>
       </c>
       <c r="E104" s="1">
-        <v>26.56</v>
+        <v>NaN</v>
       </c>
       <c r="F104" s="1">
-        <v>23.5</v>
+        <v>NaN</v>
       </c>
       <c r="G104" s="1">
-        <v>26.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B105" s="1">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="C105" s="1">
-        <v>27.5</v>
+        <v>NaN</v>
       </c>
       <c r="D105" s="1">
-        <v>26.79</v>
+        <v>NaN</v>
       </c>
       <c r="E105" s="1">
-        <v>26.56</v>
+        <v>NaN</v>
       </c>
       <c r="F105" s="1">
-        <v>23.5</v>
+        <v>NaN</v>
       </c>
       <c r="G105" s="1">
-        <v>26.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B106" s="1">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1">
-        <v>27.5</v>
+        <v>NaN</v>
       </c>
       <c r="D106" s="1">
-        <v>26.79</v>
+        <v>NaN</v>
       </c>
       <c r="E106" s="1">
-        <v>26.56</v>
+        <v>NaN</v>
       </c>
       <c r="F106" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G106" s="1">
-        <v>27.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B107" s="1">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>27.5</v>
+        <v>NaN</v>
       </c>
       <c r="D107" s="1">
-        <v>26.79</v>
+        <v>NaN</v>
       </c>
       <c r="E107" s="1">
-        <v>26.56</v>
+        <v>NaN</v>
       </c>
       <c r="F107" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G107" s="1">
-        <v>27.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B108" s="1">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="C108" s="1">
-        <v>27.5</v>
+        <v>NaN</v>
       </c>
       <c r="D108" s="1">
-        <v>26.79</v>
+        <v>NaN</v>
       </c>
       <c r="E108" s="1">
-        <v>26.56</v>
+        <v>NaN</v>
       </c>
       <c r="F108" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G108" s="1">
-        <v>27.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H108" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2994,173 +2658,173 @@
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>46</v>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B112" s="1">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="C112" s="1">
-        <v>28.5</v>
+        <v>NaN</v>
       </c>
       <c r="D112" s="1">
-        <v>27.79</v>
+        <v>NaN</v>
       </c>
       <c r="E112" s="1">
-        <v>27.56</v>
+        <v>NaN</v>
       </c>
       <c r="F112" s="1">
-        <v>24.5</v>
+        <v>NaN</v>
       </c>
       <c r="G112" s="1">
-        <v>27.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B113" s="1">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="C113" s="1">
-        <v>28.5</v>
+        <v>NaN</v>
       </c>
       <c r="D113" s="1">
-        <v>27.79</v>
+        <v>NaN</v>
       </c>
       <c r="E113" s="1">
-        <v>27.56</v>
+        <v>NaN</v>
       </c>
       <c r="F113" s="1">
-        <v>24.5</v>
+        <v>NaN</v>
       </c>
       <c r="G113" s="1">
-        <v>27.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B114" s="1">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1">
-        <v>28.5</v>
+        <v>NaN</v>
       </c>
       <c r="D114" s="1">
-        <v>27.79</v>
+        <v>NaN</v>
       </c>
       <c r="E114" s="1">
-        <v>27.56</v>
+        <v>NaN</v>
       </c>
       <c r="F114" s="1">
-        <v>24.5</v>
+        <v>NaN</v>
       </c>
       <c r="G114" s="1">
-        <v>27.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B115" s="1">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
-        <v>28.5</v>
+        <v>NaN</v>
       </c>
       <c r="D115" s="1">
-        <v>27.79</v>
+        <v>NaN</v>
       </c>
       <c r="E115" s="1">
-        <v>27.56</v>
+        <v>NaN</v>
       </c>
       <c r="F115" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G115" s="1">
-        <v>28.0875</v>
+        <v>0</v>
       </c>
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B116" s="1">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="C116" s="1">
-        <v>28.5</v>
+        <v>NaN</v>
       </c>
       <c r="D116" s="1">
-        <v>27.79</v>
+        <v>NaN</v>
       </c>
       <c r="E116" s="1">
-        <v>27.56</v>
+        <v>NaN</v>
       </c>
       <c r="F116" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G116" s="1">
-        <v>28.0875</v>
+        <v>0</v>
       </c>
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B117" s="1">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="C117" s="1">
-        <v>28.5</v>
+        <v>NaN</v>
       </c>
       <c r="D117" s="1">
-        <v>27.79</v>
+        <v>NaN</v>
       </c>
       <c r="E117" s="1">
-        <v>27.56</v>
+        <v>NaN</v>
       </c>
       <c r="F117" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G117" s="1">
-        <v>28.0875</v>
+        <v>0</v>
       </c>
       <c r="H117" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3174,173 +2838,173 @@
       <c r="A120" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>50</v>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B121" s="1">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="C121" s="1">
-        <v>29.5</v>
+        <v>NaN</v>
       </c>
       <c r="D121" s="1">
-        <v>28.79</v>
+        <v>NaN</v>
       </c>
       <c r="E121" s="1">
-        <v>28.56</v>
+        <v>NaN</v>
       </c>
       <c r="F121" s="1">
-        <v>25.5</v>
+        <v>NaN</v>
       </c>
       <c r="G121" s="1">
-        <v>28.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B122" s="1">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="C122" s="1">
-        <v>29.5</v>
+        <v>NaN</v>
       </c>
       <c r="D122" s="1">
-        <v>28.79</v>
+        <v>NaN</v>
       </c>
       <c r="E122" s="1">
-        <v>28.56</v>
+        <v>NaN</v>
       </c>
       <c r="F122" s="1">
-        <v>25.5</v>
+        <v>NaN</v>
       </c>
       <c r="G122" s="1">
-        <v>28.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B123" s="1">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="C123" s="1">
-        <v>29.5</v>
+        <v>NaN</v>
       </c>
       <c r="D123" s="1">
-        <v>28.79</v>
+        <v>NaN</v>
       </c>
       <c r="E123" s="1">
-        <v>28.56</v>
+        <v>NaN</v>
       </c>
       <c r="F123" s="1">
-        <v>25.5</v>
+        <v>NaN</v>
       </c>
       <c r="G123" s="1">
-        <v>28.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B124" s="1">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="C124" s="1">
-        <v>29.5</v>
+        <v>NaN</v>
       </c>
       <c r="D124" s="1">
-        <v>28.79</v>
+        <v>NaN</v>
       </c>
       <c r="E124" s="1">
-        <v>28.56</v>
+        <v>NaN</v>
       </c>
       <c r="F124" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G124" s="1">
-        <v>29.0875</v>
+        <v>0</v>
       </c>
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B125" s="1">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="C125" s="1">
-        <v>29.5</v>
+        <v>NaN</v>
       </c>
       <c r="D125" s="1">
-        <v>28.79</v>
+        <v>NaN</v>
       </c>
       <c r="E125" s="1">
-        <v>28.56</v>
+        <v>NaN</v>
       </c>
       <c r="F125" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G125" s="1">
-        <v>29.0875</v>
+        <v>0</v>
       </c>
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B126" s="1">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="C126" s="1">
-        <v>29.5</v>
+        <v>NaN</v>
       </c>
       <c r="D126" s="1">
-        <v>28.79</v>
+        <v>NaN</v>
       </c>
       <c r="E126" s="1">
-        <v>28.56</v>
+        <v>NaN</v>
       </c>
       <c r="F126" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G126" s="1">
-        <v>29.0875</v>
+        <v>0</v>
       </c>
       <c r="H126" s="1"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3354,173 +3018,173 @@
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>54</v>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B130" s="1">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="C130" s="1">
-        <v>30.5</v>
+        <v>NaN</v>
       </c>
       <c r="D130" s="1">
-        <v>29.79</v>
+        <v>NaN</v>
       </c>
       <c r="E130" s="1">
-        <v>29.56</v>
+        <v>NaN</v>
       </c>
       <c r="F130" s="1">
-        <v>26.5</v>
+        <v>NaN</v>
       </c>
       <c r="G130" s="1">
-        <v>29.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B131" s="1">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="C131" s="1">
-        <v>30.5</v>
+        <v>NaN</v>
       </c>
       <c r="D131" s="1">
-        <v>29.79</v>
+        <v>NaN</v>
       </c>
       <c r="E131" s="1">
-        <v>29.56</v>
+        <v>NaN</v>
       </c>
       <c r="F131" s="1">
-        <v>26.5</v>
+        <v>NaN</v>
       </c>
       <c r="G131" s="1">
-        <v>29.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B132" s="1">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="C132" s="1">
-        <v>30.5</v>
+        <v>NaN</v>
       </c>
       <c r="D132" s="1">
-        <v>29.79</v>
+        <v>NaN</v>
       </c>
       <c r="E132" s="1">
-        <v>29.56</v>
+        <v>NaN</v>
       </c>
       <c r="F132" s="1">
-        <v>26.5</v>
+        <v>NaN</v>
       </c>
       <c r="G132" s="1">
-        <v>29.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B133" s="1">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="C133" s="1">
-        <v>30.5</v>
+        <v>NaN</v>
       </c>
       <c r="D133" s="1">
-        <v>29.79</v>
+        <v>NaN</v>
       </c>
       <c r="E133" s="1">
-        <v>29.56</v>
+        <v>NaN</v>
       </c>
       <c r="F133" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G133" s="1">
-        <v>30.0875</v>
+        <v>0</v>
       </c>
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B134" s="1">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="C134" s="1">
-        <v>30.5</v>
+        <v>NaN</v>
       </c>
       <c r="D134" s="1">
-        <v>29.79</v>
+        <v>NaN</v>
       </c>
       <c r="E134" s="1">
-        <v>29.56</v>
+        <v>NaN</v>
       </c>
       <c r="F134" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G134" s="1">
-        <v>30.0875</v>
+        <v>0</v>
       </c>
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B135" s="1">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="C135" s="1">
-        <v>30.5</v>
+        <v>NaN</v>
       </c>
       <c r="D135" s="1">
-        <v>29.79</v>
+        <v>NaN</v>
       </c>
       <c r="E135" s="1">
-        <v>29.56</v>
+        <v>NaN</v>
       </c>
       <c r="F135" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G135" s="1">
-        <v>30.0875</v>
+        <v>0</v>
       </c>
       <c r="H135" s="1"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3534,173 +3198,173 @@
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>58</v>
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B139" s="1">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="C139" s="1">
-        <v>31.5</v>
+        <v>NaN</v>
       </c>
       <c r="D139" s="1">
-        <v>30.79</v>
+        <v>NaN</v>
       </c>
       <c r="E139" s="1">
-        <v>30.56</v>
+        <v>NaN</v>
       </c>
       <c r="F139" s="1">
-        <v>27.5</v>
+        <v>NaN</v>
       </c>
       <c r="G139" s="1">
-        <v>30.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B140" s="1">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="C140" s="1">
-        <v>31.5</v>
+        <v>NaN</v>
       </c>
       <c r="D140" s="1">
-        <v>30.79</v>
+        <v>NaN</v>
       </c>
       <c r="E140" s="1">
-        <v>30.56</v>
+        <v>NaN</v>
       </c>
       <c r="F140" s="1">
-        <v>27.5</v>
+        <v>NaN</v>
       </c>
       <c r="G140" s="1">
-        <v>30.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B141" s="1">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="C141" s="1">
-        <v>31.5</v>
+        <v>NaN</v>
       </c>
       <c r="D141" s="1">
-        <v>30.79</v>
+        <v>NaN</v>
       </c>
       <c r="E141" s="1">
-        <v>30.56</v>
+        <v>NaN</v>
       </c>
       <c r="F141" s="1">
-        <v>27.5</v>
+        <v>NaN</v>
       </c>
       <c r="G141" s="1">
-        <v>30.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B142" s="1">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="C142" s="1">
-        <v>31.5</v>
+        <v>NaN</v>
       </c>
       <c r="D142" s="1">
-        <v>30.79</v>
+        <v>NaN</v>
       </c>
       <c r="E142" s="1">
-        <v>30.56</v>
+        <v>NaN</v>
       </c>
       <c r="F142" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G142" s="1">
-        <v>31.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B143" s="1">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="C143" s="1">
-        <v>31.5</v>
+        <v>NaN</v>
       </c>
       <c r="D143" s="1">
-        <v>30.79</v>
+        <v>NaN</v>
       </c>
       <c r="E143" s="1">
-        <v>30.56</v>
+        <v>NaN</v>
       </c>
       <c r="F143" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G143" s="1">
-        <v>31.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B144" s="1">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="C144" s="1">
-        <v>31.5</v>
+        <v>NaN</v>
       </c>
       <c r="D144" s="1">
-        <v>30.79</v>
+        <v>NaN</v>
       </c>
       <c r="E144" s="1">
-        <v>30.56</v>
+        <v>NaN</v>
       </c>
       <c r="F144" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G144" s="1">
-        <v>31.087499999999995</v>
+        <v>0</v>
       </c>
       <c r="H144" s="1"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3714,173 +3378,173 @@
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>61</v>
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>0</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B148" s="1">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C148" s="1">
-        <v>32.5</v>
+        <v>NaN</v>
       </c>
       <c r="D148" s="1">
-        <v>31.79</v>
+        <v>NaN</v>
       </c>
       <c r="E148" s="1">
-        <v>31.56</v>
+        <v>NaN</v>
       </c>
       <c r="F148" s="1">
-        <v>28.5</v>
+        <v>NaN</v>
       </c>
       <c r="G148" s="1">
-        <v>31.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B149" s="1">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C149" s="1">
-        <v>32.5</v>
+        <v>NaN</v>
       </c>
       <c r="D149" s="1">
-        <v>31.79</v>
+        <v>NaN</v>
       </c>
       <c r="E149" s="1">
-        <v>31.56</v>
+        <v>NaN</v>
       </c>
       <c r="F149" s="1">
-        <v>28.5</v>
+        <v>NaN</v>
       </c>
       <c r="G149" s="1">
-        <v>31.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B150" s="1">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C150" s="1">
-        <v>32.5</v>
+        <v>NaN</v>
       </c>
       <c r="D150" s="1">
-        <v>31.79</v>
+        <v>NaN</v>
       </c>
       <c r="E150" s="1">
-        <v>31.56</v>
+        <v>NaN</v>
       </c>
       <c r="F150" s="1">
-        <v>28.5</v>
+        <v>NaN</v>
       </c>
       <c r="G150" s="1">
-        <v>31.369999999999997</v>
+        <v>0</v>
       </c>
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B151" s="1">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C151" s="1">
-        <v>32.5</v>
+        <v>NaN</v>
       </c>
       <c r="D151" s="1">
-        <v>31.79</v>
+        <v>NaN</v>
       </c>
       <c r="E151" s="1">
-        <v>31.56</v>
+        <v>NaN</v>
       </c>
       <c r="F151" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G151" s="1">
-        <v>32.0875</v>
+        <v>0</v>
       </c>
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B152" s="1">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C152" s="1">
-        <v>32.5</v>
+        <v>NaN</v>
       </c>
       <c r="D152" s="1">
-        <v>31.79</v>
+        <v>NaN</v>
       </c>
       <c r="E152" s="1">
-        <v>31.56</v>
+        <v>NaN</v>
       </c>
       <c r="F152" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G152" s="1">
-        <v>32.0875</v>
+        <v>0</v>
       </c>
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B153" s="1">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C153" s="1">
-        <v>32.5</v>
+        <v>NaN</v>
       </c>
       <c r="D153" s="1">
-        <v>31.79</v>
+        <v>NaN</v>
       </c>
       <c r="E153" s="1">
-        <v>31.56</v>
+        <v>NaN</v>
       </c>
       <c r="F153" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G153" s="1">
-        <v>32.0875</v>
+        <v>0</v>
       </c>
       <c r="H153" s="1"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3894,173 +3558,173 @@
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>64</v>
+      <c r="B156" s="1">
+        <v>0</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B157" s="1">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="C157" s="1">
-        <v>33.5</v>
+        <v>NaN</v>
       </c>
       <c r="D157" s="1">
-        <v>32.79</v>
+        <v>NaN</v>
       </c>
       <c r="E157" s="1">
-        <v>32.56</v>
+        <v>NaN</v>
       </c>
       <c r="F157" s="1">
-        <v>29.5</v>
+        <v>NaN</v>
       </c>
       <c r="G157" s="1">
-        <v>32.37</v>
+        <v>0</v>
       </c>
       <c r="H157" s="1"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B158" s="1">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="C158" s="1">
-        <v>33.5</v>
+        <v>NaN</v>
       </c>
       <c r="D158" s="1">
-        <v>32.79</v>
+        <v>NaN</v>
       </c>
       <c r="E158" s="1">
-        <v>32.56</v>
+        <v>NaN</v>
       </c>
       <c r="F158" s="1">
-        <v>29.5</v>
+        <v>NaN</v>
       </c>
       <c r="G158" s="1">
-        <v>32.37</v>
+        <v>0</v>
       </c>
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B159" s="1">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="C159" s="1">
-        <v>33.5</v>
+        <v>NaN</v>
       </c>
       <c r="D159" s="1">
-        <v>32.79</v>
+        <v>NaN</v>
       </c>
       <c r="E159" s="1">
-        <v>32.56</v>
+        <v>NaN</v>
       </c>
       <c r="F159" s="1">
-        <v>29.5</v>
+        <v>NaN</v>
       </c>
       <c r="G159" s="1">
-        <v>32.37</v>
+        <v>0</v>
       </c>
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B160" s="1">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="C160" s="1">
-        <v>33.5</v>
+        <v>NaN</v>
       </c>
       <c r="D160" s="1">
-        <v>32.79</v>
+        <v>NaN</v>
       </c>
       <c r="E160" s="1">
-        <v>32.56</v>
+        <v>NaN</v>
       </c>
       <c r="F160" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G160" s="1">
-        <v>33.0875</v>
+        <v>0</v>
       </c>
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B161" s="1">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="C161" s="1">
-        <v>33.5</v>
+        <v>NaN</v>
       </c>
       <c r="D161" s="1">
-        <v>32.79</v>
+        <v>NaN</v>
       </c>
       <c r="E161" s="1">
-        <v>32.56</v>
+        <v>NaN</v>
       </c>
       <c r="F161" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G161" s="1">
-        <v>33.0875</v>
+        <v>0</v>
       </c>
       <c r="H161" s="1"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B162" s="1">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="C162" s="1">
-        <v>33.5</v>
+        <v>NaN</v>
       </c>
       <c r="D162" s="1">
-        <v>32.79</v>
+        <v>NaN</v>
       </c>
       <c r="E162" s="1">
-        <v>32.56</v>
+        <v>NaN</v>
       </c>
       <c r="F162" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G162" s="1">
-        <v>33.0875</v>
+        <v>0</v>
       </c>
       <c r="H162" s="1"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4074,173 +3738,173 @@
       <c r="A165" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>67</v>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B166" s="1">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="C166" s="1">
-        <v>34.5</v>
+        <v>NaN</v>
       </c>
       <c r="D166" s="1">
-        <v>33.79</v>
+        <v>NaN</v>
       </c>
       <c r="E166" s="1">
-        <v>33.56</v>
+        <v>NaN</v>
       </c>
       <c r="F166" s="1">
-        <v>30.5</v>
+        <v>NaN</v>
       </c>
       <c r="G166" s="1">
-        <v>33.37</v>
+        <v>0</v>
       </c>
       <c r="H166" s="1"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B167" s="1">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="C167" s="1">
-        <v>34.5</v>
+        <v>NaN</v>
       </c>
       <c r="D167" s="1">
-        <v>33.79</v>
+        <v>NaN</v>
       </c>
       <c r="E167" s="1">
-        <v>33.56</v>
+        <v>NaN</v>
       </c>
       <c r="F167" s="1">
-        <v>30.5</v>
+        <v>NaN</v>
       </c>
       <c r="G167" s="1">
-        <v>33.37</v>
+        <v>0</v>
       </c>
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B168" s="1">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="C168" s="1">
-        <v>34.5</v>
+        <v>NaN</v>
       </c>
       <c r="D168" s="1">
-        <v>33.79</v>
+        <v>NaN</v>
       </c>
       <c r="E168" s="1">
-        <v>33.56</v>
+        <v>NaN</v>
       </c>
       <c r="F168" s="1">
-        <v>30.5</v>
+        <v>NaN</v>
       </c>
       <c r="G168" s="1">
-        <v>33.37</v>
+        <v>0</v>
       </c>
       <c r="H168" s="1"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B169" s="1">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="C169" s="1">
-        <v>34.5</v>
+        <v>NaN</v>
       </c>
       <c r="D169" s="1">
-        <v>33.79</v>
+        <v>NaN</v>
       </c>
       <c r="E169" s="1">
-        <v>33.56</v>
+        <v>NaN</v>
       </c>
       <c r="F169" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G169" s="1">
-        <v>34.0875</v>
+        <v>0</v>
       </c>
       <c r="H169" s="1"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B170" s="1">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="C170" s="1">
-        <v>34.5</v>
+        <v>NaN</v>
       </c>
       <c r="D170" s="1">
-        <v>33.79</v>
+        <v>NaN</v>
       </c>
       <c r="E170" s="1">
-        <v>33.56</v>
+        <v>NaN</v>
       </c>
       <c r="F170" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G170" s="1">
-        <v>34.0875</v>
+        <v>0</v>
       </c>
       <c r="H170" s="1"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B171" s="1">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="C171" s="1">
-        <v>34.5</v>
+        <v>NaN</v>
       </c>
       <c r="D171" s="1">
-        <v>33.79</v>
+        <v>NaN</v>
       </c>
       <c r="E171" s="1">
-        <v>33.56</v>
+        <v>NaN</v>
       </c>
       <c r="F171" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G171" s="1">
-        <v>34.0875</v>
+        <v>0</v>
       </c>
       <c r="H171" s="1"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4254,173 +3918,173 @@
       <c r="A174" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>71</v>
+      <c r="B174" s="1">
+        <v>0</v>
+      </c>
+      <c r="C174" s="1">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H174" s="1"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B175" s="1">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="C175" s="1">
-        <v>35.5</v>
+        <v>NaN</v>
       </c>
       <c r="D175" s="1">
-        <v>34.79</v>
+        <v>NaN</v>
       </c>
       <c r="E175" s="1">
-        <v>34.56</v>
+        <v>NaN</v>
       </c>
       <c r="F175" s="1">
-        <v>31.5</v>
+        <v>NaN</v>
       </c>
       <c r="G175" s="1">
-        <v>34.37</v>
+        <v>0</v>
       </c>
       <c r="H175" s="1"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B176" s="1">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="C176" s="1">
-        <v>35.5</v>
+        <v>NaN</v>
       </c>
       <c r="D176" s="1">
-        <v>34.79</v>
+        <v>NaN</v>
       </c>
       <c r="E176" s="1">
-        <v>34.56</v>
+        <v>NaN</v>
       </c>
       <c r="F176" s="1">
-        <v>31.5</v>
+        <v>NaN</v>
       </c>
       <c r="G176" s="1">
-        <v>34.37</v>
+        <v>0</v>
       </c>
       <c r="H176" s="1"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B177" s="1">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="C177" s="1">
-        <v>35.5</v>
+        <v>NaN</v>
       </c>
       <c r="D177" s="1">
-        <v>34.79</v>
+        <v>NaN</v>
       </c>
       <c r="E177" s="1">
-        <v>34.56</v>
+        <v>NaN</v>
       </c>
       <c r="F177" s="1">
-        <v>31.5</v>
+        <v>NaN</v>
       </c>
       <c r="G177" s="1">
-        <v>34.37</v>
+        <v>0</v>
       </c>
       <c r="H177" s="1"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B178" s="1">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="C178" s="1">
-        <v>35.5</v>
+        <v>NaN</v>
       </c>
       <c r="D178" s="1">
-        <v>34.79</v>
+        <v>NaN</v>
       </c>
       <c r="E178" s="1">
-        <v>34.56</v>
+        <v>NaN</v>
       </c>
       <c r="F178" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G178" s="1">
-        <v>35.0875</v>
+        <v>0</v>
       </c>
       <c r="H178" s="1"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B179" s="1">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="C179" s="1">
-        <v>35.5</v>
+        <v>NaN</v>
       </c>
       <c r="D179" s="1">
-        <v>34.79</v>
+        <v>NaN</v>
       </c>
       <c r="E179" s="1">
-        <v>34.56</v>
+        <v>NaN</v>
       </c>
       <c r="F179" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G179" s="1">
-        <v>35.0875</v>
+        <v>0</v>
       </c>
       <c r="H179" s="1"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B180" s="1">
-        <v>35.5</v>
+        <v>0</v>
       </c>
       <c r="C180" s="1">
-        <v>35.5</v>
+        <v>NaN</v>
       </c>
       <c r="D180" s="1">
-        <v>34.79</v>
+        <v>NaN</v>
       </c>
       <c r="E180" s="1">
-        <v>34.56</v>
+        <v>NaN</v>
       </c>
       <c r="F180" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G180" s="1">
-        <v>35.0875</v>
+        <v>0</v>
       </c>
       <c r="H180" s="1"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4434,173 +4098,173 @@
       <c r="A183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>75</v>
+      <c r="B183" s="1">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H183" s="1"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B184" s="1">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="C184" s="1">
-        <v>36.5</v>
+        <v>NaN</v>
       </c>
       <c r="D184" s="1">
-        <v>35.79</v>
+        <v>NaN</v>
       </c>
       <c r="E184" s="1">
-        <v>35.56</v>
+        <v>NaN</v>
       </c>
       <c r="F184" s="1">
-        <v>32.5</v>
+        <v>NaN</v>
       </c>
       <c r="G184" s="1">
-        <v>35.37</v>
+        <v>0</v>
       </c>
       <c r="H184" s="1"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B185" s="1">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="C185" s="1">
-        <v>36.5</v>
+        <v>NaN</v>
       </c>
       <c r="D185" s="1">
-        <v>35.79</v>
+        <v>NaN</v>
       </c>
       <c r="E185" s="1">
-        <v>35.56</v>
+        <v>NaN</v>
       </c>
       <c r="F185" s="1">
-        <v>32.5</v>
+        <v>NaN</v>
       </c>
       <c r="G185" s="1">
-        <v>35.37</v>
+        <v>0</v>
       </c>
       <c r="H185" s="1"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B186" s="1">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="C186" s="1">
-        <v>36.5</v>
+        <v>NaN</v>
       </c>
       <c r="D186" s="1">
-        <v>35.79</v>
+        <v>NaN</v>
       </c>
       <c r="E186" s="1">
-        <v>35.56</v>
+        <v>NaN</v>
       </c>
       <c r="F186" s="1">
-        <v>32.5</v>
+        <v>NaN</v>
       </c>
       <c r="G186" s="1">
-        <v>35.37</v>
+        <v>0</v>
       </c>
       <c r="H186" s="1"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B187" s="1">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="C187" s="1">
-        <v>36.5</v>
+        <v>NaN</v>
       </c>
       <c r="D187" s="1">
-        <v>35.79</v>
+        <v>NaN</v>
       </c>
       <c r="E187" s="1">
-        <v>35.56</v>
+        <v>NaN</v>
       </c>
       <c r="F187" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G187" s="1">
-        <v>36.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H187" s="1"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B188" s="1">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="C188" s="1">
-        <v>36.5</v>
+        <v>NaN</v>
       </c>
       <c r="D188" s="1">
-        <v>35.79</v>
+        <v>NaN</v>
       </c>
       <c r="E188" s="1">
-        <v>35.56</v>
+        <v>NaN</v>
       </c>
       <c r="F188" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G188" s="1">
-        <v>36.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H188" s="1"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B189" s="1">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="C189" s="1">
-        <v>36.5</v>
+        <v>NaN</v>
       </c>
       <c r="D189" s="1">
-        <v>35.79</v>
+        <v>NaN</v>
       </c>
       <c r="E189" s="1">
-        <v>35.56</v>
+        <v>NaN</v>
       </c>
       <c r="F189" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G189" s="1">
-        <v>36.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H189" s="1"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4614,173 +4278,173 @@
       <c r="A192" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>79</v>
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+      <c r="C192" s="1">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H192" s="1"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B193" s="1">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="C193" s="1">
-        <v>37.5</v>
+        <v>NaN</v>
       </c>
       <c r="D193" s="1">
-        <v>36.79</v>
+        <v>NaN</v>
       </c>
       <c r="E193" s="1">
-        <v>36.56</v>
+        <v>NaN</v>
       </c>
       <c r="F193" s="1">
-        <v>33.5</v>
+        <v>NaN</v>
       </c>
       <c r="G193" s="1">
-        <v>36.37</v>
+        <v>0</v>
       </c>
       <c r="H193" s="1"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B194" s="1">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="C194" s="1">
-        <v>37.5</v>
+        <v>NaN</v>
       </c>
       <c r="D194" s="1">
-        <v>36.79</v>
+        <v>NaN</v>
       </c>
       <c r="E194" s="1">
-        <v>36.56</v>
+        <v>NaN</v>
       </c>
       <c r="F194" s="1">
-        <v>33.5</v>
+        <v>NaN</v>
       </c>
       <c r="G194" s="1">
-        <v>36.37</v>
+        <v>0</v>
       </c>
       <c r="H194" s="1"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B195" s="1">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="C195" s="1">
-        <v>37.5</v>
+        <v>NaN</v>
       </c>
       <c r="D195" s="1">
-        <v>36.79</v>
+        <v>NaN</v>
       </c>
       <c r="E195" s="1">
-        <v>36.56</v>
+        <v>NaN</v>
       </c>
       <c r="F195" s="1">
-        <v>33.5</v>
+        <v>NaN</v>
       </c>
       <c r="G195" s="1">
-        <v>36.37</v>
+        <v>0</v>
       </c>
       <c r="H195" s="1"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B196" s="1">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="C196" s="1">
-        <v>37.5</v>
+        <v>NaN</v>
       </c>
       <c r="D196" s="1">
-        <v>36.79</v>
+        <v>NaN</v>
       </c>
       <c r="E196" s="1">
-        <v>36.56</v>
+        <v>NaN</v>
       </c>
       <c r="F196" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G196" s="1">
-        <v>37.0875</v>
+        <v>0</v>
       </c>
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B197" s="1">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="C197" s="1">
-        <v>37.5</v>
+        <v>NaN</v>
       </c>
       <c r="D197" s="1">
-        <v>36.79</v>
+        <v>NaN</v>
       </c>
       <c r="E197" s="1">
-        <v>36.56</v>
+        <v>NaN</v>
       </c>
       <c r="F197" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G197" s="1">
-        <v>37.0875</v>
+        <v>0</v>
       </c>
       <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B198" s="1">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="C198" s="1">
-        <v>37.5</v>
+        <v>NaN</v>
       </c>
       <c r="D198" s="1">
-        <v>36.79</v>
+        <v>NaN</v>
       </c>
       <c r="E198" s="1">
-        <v>36.56</v>
+        <v>NaN</v>
       </c>
       <c r="F198" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G198" s="1">
-        <v>37.0875</v>
+        <v>0</v>
       </c>
       <c r="H198" s="1"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4794,173 +4458,173 @@
       <c r="A201" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>82</v>
+      <c r="B201" s="1">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H201" s="1"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B202" s="1">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="C202" s="1">
-        <v>38.5</v>
+        <v>NaN</v>
       </c>
       <c r="D202" s="1">
-        <v>37.79</v>
+        <v>NaN</v>
       </c>
       <c r="E202" s="1">
-        <v>37.56</v>
+        <v>NaN</v>
       </c>
       <c r="F202" s="1">
-        <v>34.5</v>
+        <v>NaN</v>
       </c>
       <c r="G202" s="1">
-        <v>37.37</v>
+        <v>0</v>
       </c>
       <c r="H202" s="1"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B203" s="1">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="C203" s="1">
-        <v>38.5</v>
+        <v>NaN</v>
       </c>
       <c r="D203" s="1">
-        <v>37.79</v>
+        <v>NaN</v>
       </c>
       <c r="E203" s="1">
-        <v>37.56</v>
+        <v>NaN</v>
       </c>
       <c r="F203" s="1">
-        <v>34.5</v>
+        <v>NaN</v>
       </c>
       <c r="G203" s="1">
-        <v>37.37</v>
+        <v>0</v>
       </c>
       <c r="H203" s="1"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B204" s="1">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="C204" s="1">
-        <v>38.5</v>
+        <v>NaN</v>
       </c>
       <c r="D204" s="1">
-        <v>37.79</v>
+        <v>NaN</v>
       </c>
       <c r="E204" s="1">
-        <v>37.56</v>
+        <v>NaN</v>
       </c>
       <c r="F204" s="1">
-        <v>34.5</v>
+        <v>NaN</v>
       </c>
       <c r="G204" s="1">
-        <v>37.37</v>
+        <v>0</v>
       </c>
       <c r="H204" s="1"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B205" s="1">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="C205" s="1">
-        <v>38.5</v>
+        <v>NaN</v>
       </c>
       <c r="D205" s="1">
-        <v>37.79</v>
+        <v>NaN</v>
       </c>
       <c r="E205" s="1">
-        <v>37.56</v>
+        <v>NaN</v>
       </c>
       <c r="F205" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G205" s="1">
-        <v>38.0875</v>
+        <v>0</v>
       </c>
       <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B206" s="1">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="C206" s="1">
-        <v>38.5</v>
+        <v>NaN</v>
       </c>
       <c r="D206" s="1">
-        <v>37.79</v>
+        <v>NaN</v>
       </c>
       <c r="E206" s="1">
-        <v>37.56</v>
+        <v>NaN</v>
       </c>
       <c r="F206" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G206" s="1">
-        <v>38.0875</v>
+        <v>0</v>
       </c>
       <c r="H206" s="1"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B207" s="1">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="C207" s="1">
-        <v>38.5</v>
+        <v>NaN</v>
       </c>
       <c r="D207" s="1">
-        <v>37.79</v>
+        <v>NaN</v>
       </c>
       <c r="E207" s="1">
-        <v>37.56</v>
+        <v>NaN</v>
       </c>
       <c r="F207" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G207" s="1">
-        <v>38.0875</v>
+        <v>0</v>
       </c>
       <c r="H207" s="1"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4974,173 +4638,173 @@
       <c r="A210" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>85</v>
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210" s="1">
+        <v>0</v>
+      </c>
+      <c r="D210" s="1">
+        <v>0</v>
+      </c>
+      <c r="E210" s="1">
+        <v>0</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B211" s="1">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="C211" s="1">
-        <v>39.5</v>
+        <v>NaN</v>
       </c>
       <c r="D211" s="1">
-        <v>38.79</v>
+        <v>NaN</v>
       </c>
       <c r="E211" s="1">
-        <v>38.56</v>
+        <v>NaN</v>
       </c>
       <c r="F211" s="1">
-        <v>35.5</v>
+        <v>NaN</v>
       </c>
       <c r="G211" s="1">
-        <v>38.37</v>
+        <v>0</v>
       </c>
       <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B212" s="1">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="C212" s="1">
-        <v>39.5</v>
+        <v>NaN</v>
       </c>
       <c r="D212" s="1">
-        <v>38.79</v>
+        <v>NaN</v>
       </c>
       <c r="E212" s="1">
-        <v>38.56</v>
+        <v>NaN</v>
       </c>
       <c r="F212" s="1">
-        <v>35.5</v>
+        <v>NaN</v>
       </c>
       <c r="G212" s="1">
-        <v>38.37</v>
+        <v>0</v>
       </c>
       <c r="H212" s="1"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B213" s="1">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="C213" s="1">
-        <v>39.5</v>
+        <v>NaN</v>
       </c>
       <c r="D213" s="1">
-        <v>38.79</v>
+        <v>NaN</v>
       </c>
       <c r="E213" s="1">
-        <v>38.56</v>
+        <v>NaN</v>
       </c>
       <c r="F213" s="1">
-        <v>35.5</v>
+        <v>NaN</v>
       </c>
       <c r="G213" s="1">
-        <v>38.37</v>
+        <v>0</v>
       </c>
       <c r="H213" s="1"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B214" s="1">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="C214" s="1">
-        <v>39.5</v>
+        <v>NaN</v>
       </c>
       <c r="D214" s="1">
-        <v>38.79</v>
+        <v>NaN</v>
       </c>
       <c r="E214" s="1">
-        <v>38.56</v>
+        <v>NaN</v>
       </c>
       <c r="F214" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G214" s="1">
-        <v>39.0875</v>
+        <v>0</v>
       </c>
       <c r="H214" s="1"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B215" s="1">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="C215" s="1">
-        <v>39.5</v>
+        <v>NaN</v>
       </c>
       <c r="D215" s="1">
-        <v>38.79</v>
+        <v>NaN</v>
       </c>
       <c r="E215" s="1">
-        <v>38.56</v>
+        <v>NaN</v>
       </c>
       <c r="F215" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G215" s="1">
-        <v>39.0875</v>
+        <v>0</v>
       </c>
       <c r="H215" s="1"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B216" s="1">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="C216" s="1">
-        <v>39.5</v>
+        <v>NaN</v>
       </c>
       <c r="D216" s="1">
-        <v>38.79</v>
+        <v>NaN</v>
       </c>
       <c r="E216" s="1">
-        <v>38.56</v>
+        <v>NaN</v>
       </c>
       <c r="F216" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G216" s="1">
-        <v>39.0875</v>
+        <v>0</v>
       </c>
       <c r="H216" s="1"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -5154,173 +4818,173 @@
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>88</v>
+      <c r="B219" s="1">
+        <v>0</v>
+      </c>
+      <c r="C219" s="1">
+        <v>0</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H219" s="1"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B220" s="1">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="C220" s="1">
-        <v>40.5</v>
+        <v>NaN</v>
       </c>
       <c r="D220" s="1">
-        <v>39.79</v>
+        <v>NaN</v>
       </c>
       <c r="E220" s="1">
-        <v>39.56</v>
+        <v>NaN</v>
       </c>
       <c r="F220" s="1">
-        <v>36.5</v>
+        <v>NaN</v>
       </c>
       <c r="G220" s="1">
-        <v>39.37</v>
+        <v>0</v>
       </c>
       <c r="H220" s="1"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B221" s="1">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="C221" s="1">
-        <v>40.5</v>
+        <v>NaN</v>
       </c>
       <c r="D221" s="1">
-        <v>39.79</v>
+        <v>NaN</v>
       </c>
       <c r="E221" s="1">
-        <v>39.56</v>
+        <v>NaN</v>
       </c>
       <c r="F221" s="1">
-        <v>36.5</v>
+        <v>NaN</v>
       </c>
       <c r="G221" s="1">
-        <v>39.37</v>
+        <v>0</v>
       </c>
       <c r="H221" s="1"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B222" s="1">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="C222" s="1">
-        <v>40.5</v>
+        <v>NaN</v>
       </c>
       <c r="D222" s="1">
-        <v>39.79</v>
+        <v>NaN</v>
       </c>
       <c r="E222" s="1">
-        <v>39.56</v>
+        <v>NaN</v>
       </c>
       <c r="F222" s="1">
-        <v>36.5</v>
+        <v>NaN</v>
       </c>
       <c r="G222" s="1">
-        <v>39.37</v>
+        <v>0</v>
       </c>
       <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B223" s="1">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="C223" s="1">
-        <v>40.5</v>
+        <v>NaN</v>
       </c>
       <c r="D223" s="1">
-        <v>39.79</v>
+        <v>NaN</v>
       </c>
       <c r="E223" s="1">
-        <v>39.56</v>
+        <v>NaN</v>
       </c>
       <c r="F223" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G223" s="1">
-        <v>40.0875</v>
+        <v>0</v>
       </c>
       <c r="H223" s="1"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B224" s="1">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="C224" s="1">
-        <v>40.5</v>
+        <v>NaN</v>
       </c>
       <c r="D224" s="1">
-        <v>39.79</v>
+        <v>NaN</v>
       </c>
       <c r="E224" s="1">
-        <v>39.56</v>
+        <v>NaN</v>
       </c>
       <c r="F224" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G224" s="1">
-        <v>40.0875</v>
+        <v>0</v>
       </c>
       <c r="H224" s="1"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B225" s="1">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="C225" s="1">
-        <v>40.5</v>
+        <v>NaN</v>
       </c>
       <c r="D225" s="1">
-        <v>39.79</v>
+        <v>NaN</v>
       </c>
       <c r="E225" s="1">
-        <v>39.56</v>
+        <v>NaN</v>
       </c>
       <c r="F225" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G225" s="1">
-        <v>40.0875</v>
+        <v>0</v>
       </c>
       <c r="H225" s="1"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -5334,173 +4998,173 @@
       <c r="A228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>91</v>
+      <c r="B228" s="1">
+        <v>0</v>
+      </c>
+      <c r="C228" s="1">
+        <v>0</v>
+      </c>
+      <c r="D228" s="1">
+        <v>0</v>
+      </c>
+      <c r="E228" s="1">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H228" s="1"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B229" s="1">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="C229" s="1">
-        <v>41.5</v>
+        <v>NaN</v>
       </c>
       <c r="D229" s="1">
-        <v>40.79</v>
+        <v>NaN</v>
       </c>
       <c r="E229" s="1">
-        <v>40.56</v>
+        <v>NaN</v>
       </c>
       <c r="F229" s="1">
-        <v>37.5</v>
+        <v>NaN</v>
       </c>
       <c r="G229" s="1">
-        <v>40.37</v>
+        <v>0</v>
       </c>
       <c r="H229" s="1"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B230" s="1">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="C230" s="1">
-        <v>41.5</v>
+        <v>NaN</v>
       </c>
       <c r="D230" s="1">
-        <v>40.79</v>
+        <v>NaN</v>
       </c>
       <c r="E230" s="1">
-        <v>40.56</v>
+        <v>NaN</v>
       </c>
       <c r="F230" s="1">
-        <v>37.5</v>
+        <v>NaN</v>
       </c>
       <c r="G230" s="1">
-        <v>40.37</v>
+        <v>0</v>
       </c>
       <c r="H230" s="1"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B231" s="1">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="C231" s="1">
-        <v>41.5</v>
+        <v>NaN</v>
       </c>
       <c r="D231" s="1">
-        <v>40.79</v>
+        <v>NaN</v>
       </c>
       <c r="E231" s="1">
-        <v>40.56</v>
+        <v>NaN</v>
       </c>
       <c r="F231" s="1">
-        <v>37.5</v>
+        <v>NaN</v>
       </c>
       <c r="G231" s="1">
-        <v>40.37</v>
+        <v>0</v>
       </c>
       <c r="H231" s="1"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B232" s="1">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="C232" s="1">
-        <v>41.5</v>
+        <v>NaN</v>
       </c>
       <c r="D232" s="1">
-        <v>40.79</v>
+        <v>NaN</v>
       </c>
       <c r="E232" s="1">
-        <v>40.56</v>
+        <v>NaN</v>
       </c>
       <c r="F232" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G232" s="1">
-        <v>41.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H232" s="1"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B233" s="1">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="C233" s="1">
-        <v>41.5</v>
+        <v>NaN</v>
       </c>
       <c r="D233" s="1">
-        <v>40.79</v>
+        <v>NaN</v>
       </c>
       <c r="E233" s="1">
-        <v>40.56</v>
+        <v>NaN</v>
       </c>
       <c r="F233" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G233" s="1">
-        <v>41.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H233" s="1"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B234" s="1">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="C234" s="1">
-        <v>41.5</v>
+        <v>NaN</v>
       </c>
       <c r="D234" s="1">
-        <v>40.79</v>
+        <v>NaN</v>
       </c>
       <c r="E234" s="1">
-        <v>40.56</v>
+        <v>NaN</v>
       </c>
       <c r="F234" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G234" s="1">
-        <v>41.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H234" s="1"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5514,173 +5178,173 @@
       <c r="A237" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>94</v>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0</v>
+      </c>
+      <c r="D237" s="1">
+        <v>0</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1">
+        <v>0</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H237" s="1"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B238" s="1">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="C238" s="1">
-        <v>42.5</v>
+        <v>NaN</v>
       </c>
       <c r="D238" s="1">
-        <v>41.79</v>
+        <v>NaN</v>
       </c>
       <c r="E238" s="1">
-        <v>41.56</v>
+        <v>NaN</v>
       </c>
       <c r="F238" s="1">
-        <v>38.5</v>
+        <v>NaN</v>
       </c>
       <c r="G238" s="1">
-        <v>41.37</v>
+        <v>0</v>
       </c>
       <c r="H238" s="1"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B239" s="1">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="C239" s="1">
-        <v>42.5</v>
+        <v>NaN</v>
       </c>
       <c r="D239" s="1">
-        <v>41.79</v>
+        <v>NaN</v>
       </c>
       <c r="E239" s="1">
-        <v>41.56</v>
+        <v>NaN</v>
       </c>
       <c r="F239" s="1">
-        <v>38.5</v>
+        <v>NaN</v>
       </c>
       <c r="G239" s="1">
-        <v>41.37</v>
+        <v>0</v>
       </c>
       <c r="H239" s="1"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B240" s="1">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="C240" s="1">
-        <v>42.5</v>
+        <v>NaN</v>
       </c>
       <c r="D240" s="1">
-        <v>41.79</v>
+        <v>NaN</v>
       </c>
       <c r="E240" s="1">
-        <v>41.56</v>
+        <v>NaN</v>
       </c>
       <c r="F240" s="1">
-        <v>38.5</v>
+        <v>NaN</v>
       </c>
       <c r="G240" s="1">
-        <v>41.37</v>
+        <v>0</v>
       </c>
       <c r="H240" s="1"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B241" s="1">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="C241" s="1">
-        <v>42.5</v>
+        <v>NaN</v>
       </c>
       <c r="D241" s="1">
-        <v>41.79</v>
+        <v>NaN</v>
       </c>
       <c r="E241" s="1">
-        <v>41.56</v>
+        <v>NaN</v>
       </c>
       <c r="F241" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G241" s="1">
-        <v>42.0875</v>
+        <v>0</v>
       </c>
       <c r="H241" s="1"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B242" s="1">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="C242" s="1">
-        <v>42.5</v>
+        <v>NaN</v>
       </c>
       <c r="D242" s="1">
-        <v>41.79</v>
+        <v>NaN</v>
       </c>
       <c r="E242" s="1">
-        <v>41.56</v>
+        <v>NaN</v>
       </c>
       <c r="F242" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G242" s="1">
-        <v>42.0875</v>
+        <v>0</v>
       </c>
       <c r="H242" s="1"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B243" s="1">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="C243" s="1">
-        <v>42.5</v>
+        <v>NaN</v>
       </c>
       <c r="D243" s="1">
-        <v>41.79</v>
+        <v>NaN</v>
       </c>
       <c r="E243" s="1">
-        <v>41.56</v>
+        <v>NaN</v>
       </c>
       <c r="F243" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G243" s="1">
-        <v>42.0875</v>
+        <v>0</v>
       </c>
       <c r="H243" s="1"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -5694,173 +5358,173 @@
       <c r="A246" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>97</v>
+      <c r="B246" s="1">
+        <v>0</v>
+      </c>
+      <c r="C246" s="1">
+        <v>0</v>
+      </c>
+      <c r="D246" s="1">
+        <v>0</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H246" s="1"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B247" s="1">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="C247" s="1">
-        <v>43.5</v>
+        <v>NaN</v>
       </c>
       <c r="D247" s="1">
-        <v>42.79</v>
+        <v>NaN</v>
       </c>
       <c r="E247" s="1">
-        <v>42.56</v>
+        <v>NaN</v>
       </c>
       <c r="F247" s="1">
-        <v>39.5</v>
+        <v>NaN</v>
       </c>
       <c r="G247" s="1">
-        <v>42.37</v>
+        <v>0</v>
       </c>
       <c r="H247" s="1"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B248" s="1">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="C248" s="1">
-        <v>43.5</v>
+        <v>NaN</v>
       </c>
       <c r="D248" s="1">
-        <v>42.79</v>
+        <v>NaN</v>
       </c>
       <c r="E248" s="1">
-        <v>42.56</v>
+        <v>NaN</v>
       </c>
       <c r="F248" s="1">
-        <v>39.5</v>
+        <v>NaN</v>
       </c>
       <c r="G248" s="1">
-        <v>42.37</v>
+        <v>0</v>
       </c>
       <c r="H248" s="1"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B249" s="1">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="C249" s="1">
-        <v>43.5</v>
+        <v>NaN</v>
       </c>
       <c r="D249" s="1">
-        <v>42.79</v>
+        <v>NaN</v>
       </c>
       <c r="E249" s="1">
-        <v>42.56</v>
+        <v>NaN</v>
       </c>
       <c r="F249" s="1">
-        <v>39.5</v>
+        <v>NaN</v>
       </c>
       <c r="G249" s="1">
-        <v>42.37</v>
+        <v>0</v>
       </c>
       <c r="H249" s="1"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B250" s="1">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="C250" s="1">
-        <v>43.5</v>
+        <v>NaN</v>
       </c>
       <c r="D250" s="1">
-        <v>42.79</v>
+        <v>NaN</v>
       </c>
       <c r="E250" s="1">
-        <v>42.56</v>
+        <v>NaN</v>
       </c>
       <c r="F250" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G250" s="1">
-        <v>43.0875</v>
+        <v>0</v>
       </c>
       <c r="H250" s="1"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B251" s="1">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="C251" s="1">
-        <v>43.5</v>
+        <v>NaN</v>
       </c>
       <c r="D251" s="1">
-        <v>42.79</v>
+        <v>NaN</v>
       </c>
       <c r="E251" s="1">
-        <v>42.56</v>
+        <v>NaN</v>
       </c>
       <c r="F251" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G251" s="1">
-        <v>43.0875</v>
+        <v>0</v>
       </c>
       <c r="H251" s="1"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B252" s="1">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="C252" s="1">
-        <v>43.5</v>
+        <v>NaN</v>
       </c>
       <c r="D252" s="1">
-        <v>42.79</v>
+        <v>NaN</v>
       </c>
       <c r="E252" s="1">
-        <v>42.56</v>
+        <v>NaN</v>
       </c>
       <c r="F252" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G252" s="1">
-        <v>43.0875</v>
+        <v>0</v>
       </c>
       <c r="H252" s="1"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -5874,173 +5538,173 @@
       <c r="A255" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>100</v>
+      <c r="B255" s="1">
+        <v>0</v>
+      </c>
+      <c r="C255" s="1">
+        <v>0</v>
+      </c>
+      <c r="D255" s="1">
+        <v>0</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H255" s="1"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B256" s="1">
-        <v>44.5</v>
+        <v>0</v>
       </c>
       <c r="C256" s="1">
-        <v>44.5</v>
+        <v>NaN</v>
       </c>
       <c r="D256" s="1">
-        <v>43.79</v>
+        <v>NaN</v>
       </c>
       <c r="E256" s="1">
-        <v>43.56</v>
+        <v>NaN</v>
       </c>
       <c r="F256" s="1">
-        <v>40.5</v>
+        <v>NaN</v>
       </c>
       <c r="G256" s="1">
-        <v>43.37</v>
+        <v>0</v>
       </c>
       <c r="H256" s="1"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B257" s="1">
-        <v>44.5</v>
+        <v>0</v>
       </c>
       <c r="C257" s="1">
-        <v>44.5</v>
+        <v>NaN</v>
       </c>
       <c r="D257" s="1">
-        <v>43.79</v>
+        <v>NaN</v>
       </c>
       <c r="E257" s="1">
-        <v>43.56</v>
+        <v>NaN</v>
       </c>
       <c r="F257" s="1">
-        <v>40.5</v>
+        <v>NaN</v>
       </c>
       <c r="G257" s="1">
-        <v>43.37</v>
+        <v>0</v>
       </c>
       <c r="H257" s="1"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B258" s="1">
-        <v>44.5</v>
+        <v>0</v>
       </c>
       <c r="C258" s="1">
-        <v>44.5</v>
+        <v>NaN</v>
       </c>
       <c r="D258" s="1">
-        <v>43.79</v>
+        <v>NaN</v>
       </c>
       <c r="E258" s="1">
-        <v>43.56</v>
+        <v>NaN</v>
       </c>
       <c r="F258" s="1">
-        <v>40.5</v>
+        <v>NaN</v>
       </c>
       <c r="G258" s="1">
-        <v>43.37</v>
+        <v>0</v>
       </c>
       <c r="H258" s="1"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B259" s="1">
-        <v>44.5</v>
+        <v>0</v>
       </c>
       <c r="C259" s="1">
-        <v>44.5</v>
+        <v>NaN</v>
       </c>
       <c r="D259" s="1">
-        <v>43.79</v>
+        <v>NaN</v>
       </c>
       <c r="E259" s="1">
-        <v>43.56</v>
+        <v>NaN</v>
       </c>
       <c r="F259" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G259" s="1">
-        <v>44.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H259" s="1"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B260" s="1">
-        <v>44.5</v>
+        <v>0</v>
       </c>
       <c r="C260" s="1">
-        <v>44.5</v>
+        <v>NaN</v>
       </c>
       <c r="D260" s="1">
-        <v>43.79</v>
+        <v>NaN</v>
       </c>
       <c r="E260" s="1">
-        <v>43.56</v>
+        <v>NaN</v>
       </c>
       <c r="F260" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G260" s="1">
-        <v>44.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H260" s="1"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B261" s="1">
-        <v>44.5</v>
+        <v>0</v>
       </c>
       <c r="C261" s="1">
-        <v>44.5</v>
+        <v>NaN</v>
       </c>
       <c r="D261" s="1">
-        <v>43.79</v>
+        <v>NaN</v>
       </c>
       <c r="E261" s="1">
-        <v>43.56</v>
+        <v>NaN</v>
       </c>
       <c r="F261" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G261" s="1">
-        <v>44.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H261" s="1"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -6054,173 +5718,173 @@
       <c r="A264" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>103</v>
+      <c r="B264" s="1">
+        <v>0</v>
+      </c>
+      <c r="C264" s="1">
+        <v>0</v>
+      </c>
+      <c r="D264" s="1">
+        <v>0</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H264" s="1"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B265" s="1">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="C265" s="1">
-        <v>45.5</v>
+        <v>NaN</v>
       </c>
       <c r="D265" s="1">
-        <v>44.79</v>
+        <v>NaN</v>
       </c>
       <c r="E265" s="1">
-        <v>44.56</v>
+        <v>NaN</v>
       </c>
       <c r="F265" s="1">
-        <v>41.5</v>
+        <v>NaN</v>
       </c>
       <c r="G265" s="1">
-        <v>44.37</v>
+        <v>0</v>
       </c>
       <c r="H265" s="1"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B266" s="1">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="C266" s="1">
-        <v>45.5</v>
+        <v>NaN</v>
       </c>
       <c r="D266" s="1">
-        <v>44.79</v>
+        <v>NaN</v>
       </c>
       <c r="E266" s="1">
-        <v>44.56</v>
+        <v>NaN</v>
       </c>
       <c r="F266" s="1">
-        <v>41.5</v>
+        <v>NaN</v>
       </c>
       <c r="G266" s="1">
-        <v>44.37</v>
+        <v>0</v>
       </c>
       <c r="H266" s="1"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B267" s="1">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="C267" s="1">
-        <v>45.5</v>
+        <v>NaN</v>
       </c>
       <c r="D267" s="1">
-        <v>44.79</v>
+        <v>NaN</v>
       </c>
       <c r="E267" s="1">
-        <v>44.56</v>
+        <v>NaN</v>
       </c>
       <c r="F267" s="1">
-        <v>41.5</v>
+        <v>NaN</v>
       </c>
       <c r="G267" s="1">
-        <v>44.37</v>
+        <v>0</v>
       </c>
       <c r="H267" s="1"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B268" s="1">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="C268" s="1">
-        <v>45.5</v>
+        <v>NaN</v>
       </c>
       <c r="D268" s="1">
-        <v>44.79</v>
+        <v>NaN</v>
       </c>
       <c r="E268" s="1">
-        <v>44.56</v>
+        <v>NaN</v>
       </c>
       <c r="F268" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G268" s="1">
-        <v>45.0875</v>
+        <v>0</v>
       </c>
       <c r="H268" s="1"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B269" s="1">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="C269" s="1">
-        <v>45.5</v>
+        <v>NaN</v>
       </c>
       <c r="D269" s="1">
-        <v>44.79</v>
+        <v>NaN</v>
       </c>
       <c r="E269" s="1">
-        <v>44.56</v>
+        <v>NaN</v>
       </c>
       <c r="F269" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G269" s="1">
-        <v>45.0875</v>
+        <v>0</v>
       </c>
       <c r="H269" s="1"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B270" s="1">
-        <v>45.5</v>
+        <v>0</v>
       </c>
       <c r="C270" s="1">
-        <v>45.5</v>
+        <v>NaN</v>
       </c>
       <c r="D270" s="1">
-        <v>44.79</v>
+        <v>NaN</v>
       </c>
       <c r="E270" s="1">
-        <v>44.56</v>
+        <v>NaN</v>
       </c>
       <c r="F270" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G270" s="1">
-        <v>45.0875</v>
+        <v>0</v>
       </c>
       <c r="H270" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -6234,173 +5898,173 @@
       <c r="A273" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>106</v>
+      <c r="B273" s="1">
+        <v>0</v>
+      </c>
+      <c r="C273" s="1">
+        <v>0</v>
+      </c>
+      <c r="D273" s="1">
+        <v>0</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
+      <c r="F273" s="1">
+        <v>0</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H273" s="1"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B274" s="1">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="C274" s="1">
-        <v>46.5</v>
+        <v>NaN</v>
       </c>
       <c r="D274" s="1">
-        <v>45.79</v>
+        <v>NaN</v>
       </c>
       <c r="E274" s="1">
-        <v>45.56</v>
+        <v>NaN</v>
       </c>
       <c r="F274" s="1">
-        <v>42.5</v>
+        <v>NaN</v>
       </c>
       <c r="G274" s="1">
-        <v>45.37</v>
+        <v>0</v>
       </c>
       <c r="H274" s="1"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B275" s="1">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="C275" s="1">
-        <v>46.5</v>
+        <v>NaN</v>
       </c>
       <c r="D275" s="1">
-        <v>45.79</v>
+        <v>NaN</v>
       </c>
       <c r="E275" s="1">
-        <v>45.56</v>
+        <v>NaN</v>
       </c>
       <c r="F275" s="1">
-        <v>42.5</v>
+        <v>NaN</v>
       </c>
       <c r="G275" s="1">
-        <v>45.37</v>
+        <v>0</v>
       </c>
       <c r="H275" s="1"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B276" s="1">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="C276" s="1">
-        <v>46.5</v>
+        <v>NaN</v>
       </c>
       <c r="D276" s="1">
-        <v>45.79</v>
+        <v>NaN</v>
       </c>
       <c r="E276" s="1">
-        <v>45.56</v>
+        <v>NaN</v>
       </c>
       <c r="F276" s="1">
-        <v>42.5</v>
+        <v>NaN</v>
       </c>
       <c r="G276" s="1">
-        <v>45.37</v>
+        <v>0</v>
       </c>
       <c r="H276" s="1"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B277" s="1">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="C277" s="1">
-        <v>46.5</v>
+        <v>NaN</v>
       </c>
       <c r="D277" s="1">
-        <v>45.79</v>
+        <v>NaN</v>
       </c>
       <c r="E277" s="1">
-        <v>45.56</v>
+        <v>NaN</v>
       </c>
       <c r="F277" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G277" s="1">
-        <v>46.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H277" s="1"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B278" s="1">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="C278" s="1">
-        <v>46.5</v>
+        <v>NaN</v>
       </c>
       <c r="D278" s="1">
-        <v>45.79</v>
+        <v>NaN</v>
       </c>
       <c r="E278" s="1">
-        <v>45.56</v>
+        <v>NaN</v>
       </c>
       <c r="F278" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G278" s="1">
-        <v>46.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H278" s="1"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B279" s="1">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="C279" s="1">
-        <v>46.5</v>
+        <v>NaN</v>
       </c>
       <c r="D279" s="1">
-        <v>45.79</v>
+        <v>NaN</v>
       </c>
       <c r="E279" s="1">
-        <v>45.56</v>
+        <v>NaN</v>
       </c>
       <c r="F279" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G279" s="1">
-        <v>46.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H279" s="1"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -6414,173 +6078,173 @@
       <c r="A282" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>109</v>
+      <c r="B282" s="1">
+        <v>0</v>
+      </c>
+      <c r="C282" s="1">
+        <v>0</v>
+      </c>
+      <c r="D282" s="1">
+        <v>0</v>
+      </c>
+      <c r="E282" s="1">
+        <v>0</v>
+      </c>
+      <c r="F282" s="1">
+        <v>0</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H282" s="1"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B283" s="1">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="C283" s="1">
-        <v>47.5</v>
+        <v>NaN</v>
       </c>
       <c r="D283" s="1">
-        <v>46.79</v>
+        <v>NaN</v>
       </c>
       <c r="E283" s="1">
-        <v>46.56</v>
+        <v>NaN</v>
       </c>
       <c r="F283" s="1">
-        <v>43.5</v>
+        <v>NaN</v>
       </c>
       <c r="G283" s="1">
-        <v>46.37</v>
+        <v>0</v>
       </c>
       <c r="H283" s="1"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B284" s="1">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="C284" s="1">
-        <v>47.5</v>
+        <v>NaN</v>
       </c>
       <c r="D284" s="1">
-        <v>46.79</v>
+        <v>NaN</v>
       </c>
       <c r="E284" s="1">
-        <v>46.56</v>
+        <v>NaN</v>
       </c>
       <c r="F284" s="1">
-        <v>43.5</v>
+        <v>NaN</v>
       </c>
       <c r="G284" s="1">
-        <v>46.37</v>
+        <v>0</v>
       </c>
       <c r="H284" s="1"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B285" s="1">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="C285" s="1">
-        <v>47.5</v>
+        <v>NaN</v>
       </c>
       <c r="D285" s="1">
-        <v>46.79</v>
+        <v>NaN</v>
       </c>
       <c r="E285" s="1">
-        <v>46.56</v>
+        <v>NaN</v>
       </c>
       <c r="F285" s="1">
-        <v>43.5</v>
+        <v>NaN</v>
       </c>
       <c r="G285" s="1">
-        <v>46.37</v>
+        <v>0</v>
       </c>
       <c r="H285" s="1"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B286" s="1">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="C286" s="1">
-        <v>47.5</v>
+        <v>NaN</v>
       </c>
       <c r="D286" s="1">
-        <v>46.79</v>
+        <v>NaN</v>
       </c>
       <c r="E286" s="1">
-        <v>46.56</v>
+        <v>NaN</v>
       </c>
       <c r="F286" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G286" s="1">
-        <v>47.0875</v>
+        <v>0</v>
       </c>
       <c r="H286" s="1"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B287" s="1">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="C287" s="1">
-        <v>47.5</v>
+        <v>NaN</v>
       </c>
       <c r="D287" s="1">
-        <v>46.79</v>
+        <v>NaN</v>
       </c>
       <c r="E287" s="1">
-        <v>46.56</v>
+        <v>NaN</v>
       </c>
       <c r="F287" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G287" s="1">
-        <v>47.0875</v>
+        <v>0</v>
       </c>
       <c r="H287" s="1"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B288" s="1">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="C288" s="1">
-        <v>47.5</v>
+        <v>NaN</v>
       </c>
       <c r="D288" s="1">
-        <v>46.79</v>
+        <v>NaN</v>
       </c>
       <c r="E288" s="1">
-        <v>46.56</v>
+        <v>NaN</v>
       </c>
       <c r="F288" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G288" s="1">
-        <v>47.0875</v>
+        <v>0</v>
       </c>
       <c r="H288" s="1"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -6594,173 +6258,173 @@
       <c r="A291" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>112</v>
+      <c r="B291" s="1">
+        <v>0</v>
+      </c>
+      <c r="C291" s="1">
+        <v>0</v>
+      </c>
+      <c r="D291" s="1">
+        <v>0</v>
+      </c>
+      <c r="E291" s="1">
+        <v>0</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H291" s="1"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B292" s="1">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="C292" s="1">
-        <v>48.5</v>
+        <v>NaN</v>
       </c>
       <c r="D292" s="1">
-        <v>47.79</v>
+        <v>NaN</v>
       </c>
       <c r="E292" s="1">
-        <v>47.56</v>
+        <v>NaN</v>
       </c>
       <c r="F292" s="1">
-        <v>44.5</v>
+        <v>NaN</v>
       </c>
       <c r="G292" s="1">
-        <v>47.37</v>
+        <v>0</v>
       </c>
       <c r="H292" s="1"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B293" s="1">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="C293" s="1">
-        <v>48.5</v>
+        <v>NaN</v>
       </c>
       <c r="D293" s="1">
-        <v>47.79</v>
+        <v>NaN</v>
       </c>
       <c r="E293" s="1">
-        <v>47.56</v>
+        <v>NaN</v>
       </c>
       <c r="F293" s="1">
-        <v>44.5</v>
+        <v>NaN</v>
       </c>
       <c r="G293" s="1">
-        <v>47.37</v>
+        <v>0</v>
       </c>
       <c r="H293" s="1"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B294" s="1">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="C294" s="1">
-        <v>48.5</v>
+        <v>NaN</v>
       </c>
       <c r="D294" s="1">
-        <v>47.79</v>
+        <v>NaN</v>
       </c>
       <c r="E294" s="1">
-        <v>47.56</v>
+        <v>NaN</v>
       </c>
       <c r="F294" s="1">
-        <v>44.5</v>
+        <v>NaN</v>
       </c>
       <c r="G294" s="1">
-        <v>47.37</v>
+        <v>0</v>
       </c>
       <c r="H294" s="1"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B295" s="1">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="C295" s="1">
-        <v>48.5</v>
+        <v>NaN</v>
       </c>
       <c r="D295" s="1">
-        <v>47.79</v>
+        <v>NaN</v>
       </c>
       <c r="E295" s="1">
-        <v>47.56</v>
+        <v>NaN</v>
       </c>
       <c r="F295" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G295" s="1">
-        <v>48.0875</v>
+        <v>0</v>
       </c>
       <c r="H295" s="1"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B296" s="1">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="C296" s="1">
-        <v>48.5</v>
+        <v>NaN</v>
       </c>
       <c r="D296" s="1">
-        <v>47.79</v>
+        <v>NaN</v>
       </c>
       <c r="E296" s="1">
-        <v>47.56</v>
+        <v>NaN</v>
       </c>
       <c r="F296" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G296" s="1">
-        <v>48.0875</v>
+        <v>0</v>
       </c>
       <c r="H296" s="1"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B297" s="1">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="C297" s="1">
-        <v>48.5</v>
+        <v>NaN</v>
       </c>
       <c r="D297" s="1">
-        <v>47.79</v>
+        <v>NaN</v>
       </c>
       <c r="E297" s="1">
-        <v>47.56</v>
+        <v>NaN</v>
       </c>
       <c r="F297" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G297" s="1">
-        <v>48.0875</v>
+        <v>0</v>
       </c>
       <c r="H297" s="1"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -6774,173 +6438,173 @@
       <c r="A300" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>115</v>
+      <c r="B300" s="1">
+        <v>0</v>
+      </c>
+      <c r="C300" s="1">
+        <v>0</v>
+      </c>
+      <c r="D300" s="1">
+        <v>0</v>
+      </c>
+      <c r="E300" s="1">
+        <v>0</v>
+      </c>
+      <c r="F300" s="1">
+        <v>0</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H300" s="1"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B301" s="1">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="C301" s="1">
-        <v>49.5</v>
+        <v>NaN</v>
       </c>
       <c r="D301" s="1">
-        <v>48.79</v>
+        <v>NaN</v>
       </c>
       <c r="E301" s="1">
-        <v>48.56</v>
+        <v>NaN</v>
       </c>
       <c r="F301" s="1">
-        <v>45.5</v>
+        <v>NaN</v>
       </c>
       <c r="G301" s="1">
-        <v>48.37</v>
+        <v>0</v>
       </c>
       <c r="H301" s="1"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B302" s="1">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="C302" s="1">
-        <v>49.5</v>
+        <v>NaN</v>
       </c>
       <c r="D302" s="1">
-        <v>48.79</v>
+        <v>NaN</v>
       </c>
       <c r="E302" s="1">
-        <v>48.56</v>
+        <v>NaN</v>
       </c>
       <c r="F302" s="1">
-        <v>45.5</v>
+        <v>NaN</v>
       </c>
       <c r="G302" s="1">
-        <v>48.37</v>
+        <v>0</v>
       </c>
       <c r="H302" s="1"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B303" s="1">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="C303" s="1">
-        <v>49.5</v>
+        <v>NaN</v>
       </c>
       <c r="D303" s="1">
-        <v>48.79</v>
+        <v>NaN</v>
       </c>
       <c r="E303" s="1">
-        <v>48.56</v>
+        <v>NaN</v>
       </c>
       <c r="F303" s="1">
-        <v>45.5</v>
+        <v>NaN</v>
       </c>
       <c r="G303" s="1">
-        <v>48.37</v>
+        <v>0</v>
       </c>
       <c r="H303" s="1"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B304" s="1">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="C304" s="1">
-        <v>49.5</v>
+        <v>NaN</v>
       </c>
       <c r="D304" s="1">
-        <v>48.79</v>
+        <v>NaN</v>
       </c>
       <c r="E304" s="1">
-        <v>48.56</v>
+        <v>NaN</v>
       </c>
       <c r="F304" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G304" s="1">
-        <v>49.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H304" s="1"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B305" s="1">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="C305" s="1">
-        <v>49.5</v>
+        <v>NaN</v>
       </c>
       <c r="D305" s="1">
-        <v>48.79</v>
+        <v>NaN</v>
       </c>
       <c r="E305" s="1">
-        <v>48.56</v>
+        <v>NaN</v>
       </c>
       <c r="F305" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G305" s="1">
-        <v>49.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H305" s="1"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B306" s="1">
-        <v>49.5</v>
+        <v>0</v>
       </c>
       <c r="C306" s="1">
-        <v>49.5</v>
+        <v>NaN</v>
       </c>
       <c r="D306" s="1">
-        <v>48.79</v>
+        <v>NaN</v>
       </c>
       <c r="E306" s="1">
-        <v>48.56</v>
+        <v>NaN</v>
       </c>
       <c r="F306" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G306" s="1">
-        <v>49.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H306" s="1"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -6954,173 +6618,173 @@
       <c r="A309" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>118</v>
+      <c r="B309" s="1">
+        <v>0</v>
+      </c>
+      <c r="C309" s="1">
+        <v>0</v>
+      </c>
+      <c r="D309" s="1">
+        <v>0</v>
+      </c>
+      <c r="E309" s="1">
+        <v>0</v>
+      </c>
+      <c r="F309" s="1">
+        <v>0</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H309" s="1"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B310" s="1">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="C310" s="1">
-        <v>50.5</v>
+        <v>NaN</v>
       </c>
       <c r="D310" s="1">
-        <v>49.79</v>
+        <v>NaN</v>
       </c>
       <c r="E310" s="1">
-        <v>49.56</v>
+        <v>NaN</v>
       </c>
       <c r="F310" s="1">
-        <v>46.5</v>
+        <v>NaN</v>
       </c>
       <c r="G310" s="1">
-        <v>49.37</v>
+        <v>0</v>
       </c>
       <c r="H310" s="1"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B311" s="1">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="C311" s="1">
-        <v>50.5</v>
+        <v>NaN</v>
       </c>
       <c r="D311" s="1">
-        <v>49.79</v>
+        <v>NaN</v>
       </c>
       <c r="E311" s="1">
-        <v>49.56</v>
+        <v>NaN</v>
       </c>
       <c r="F311" s="1">
-        <v>46.5</v>
+        <v>NaN</v>
       </c>
       <c r="G311" s="1">
-        <v>49.37</v>
+        <v>0</v>
       </c>
       <c r="H311" s="1"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B312" s="1">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="C312" s="1">
-        <v>50.5</v>
+        <v>NaN</v>
       </c>
       <c r="D312" s="1">
-        <v>49.79</v>
+        <v>NaN</v>
       </c>
       <c r="E312" s="1">
-        <v>49.56</v>
+        <v>NaN</v>
       </c>
       <c r="F312" s="1">
-        <v>46.5</v>
+        <v>NaN</v>
       </c>
       <c r="G312" s="1">
-        <v>49.37</v>
+        <v>0</v>
       </c>
       <c r="H312" s="1"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B313" s="1">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="C313" s="1">
-        <v>50.5</v>
+        <v>NaN</v>
       </c>
       <c r="D313" s="1">
-        <v>49.79</v>
+        <v>NaN</v>
       </c>
       <c r="E313" s="1">
-        <v>49.56</v>
+        <v>NaN</v>
       </c>
       <c r="F313" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G313" s="1">
-        <v>50.0875</v>
+        <v>0</v>
       </c>
       <c r="H313" s="1"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B314" s="1">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="C314" s="1">
-        <v>50.5</v>
+        <v>NaN</v>
       </c>
       <c r="D314" s="1">
-        <v>49.79</v>
+        <v>NaN</v>
       </c>
       <c r="E314" s="1">
-        <v>49.56</v>
+        <v>NaN</v>
       </c>
       <c r="F314" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G314" s="1">
-        <v>50.0875</v>
+        <v>0</v>
       </c>
       <c r="H314" s="1"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B315" s="1">
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="C315" s="1">
-        <v>50.5</v>
+        <v>NaN</v>
       </c>
       <c r="D315" s="1">
-        <v>49.79</v>
+        <v>NaN</v>
       </c>
       <c r="E315" s="1">
-        <v>49.56</v>
+        <v>NaN</v>
       </c>
       <c r="F315" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G315" s="1">
-        <v>50.0875</v>
+        <v>0</v>
       </c>
       <c r="H315" s="1"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -7134,167 +6798,167 @@
       <c r="A318" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F318" s="1" t="s">
-        <v>121</v>
+      <c r="B318" s="1">
+        <v>0</v>
+      </c>
+      <c r="C318" s="1">
+        <v>0</v>
+      </c>
+      <c r="D318" s="1">
+        <v>0</v>
+      </c>
+      <c r="E318" s="1">
+        <v>0</v>
+      </c>
+      <c r="F318" s="1">
+        <v>0</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H318" s="1"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B319" s="1">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="C319" s="1">
-        <v>51.5</v>
+        <v>NaN</v>
       </c>
       <c r="D319" s="1">
-        <v>50.79</v>
+        <v>NaN</v>
       </c>
       <c r="E319" s="1">
-        <v>50.56</v>
+        <v>NaN</v>
       </c>
       <c r="F319" s="1">
-        <v>47.5</v>
+        <v>NaN</v>
       </c>
       <c r="G319" s="1">
-        <v>50.37</v>
+        <v>0</v>
       </c>
       <c r="H319" s="1"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B320" s="1">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="C320" s="1">
-        <v>51.5</v>
+        <v>NaN</v>
       </c>
       <c r="D320" s="1">
-        <v>50.79</v>
+        <v>NaN</v>
       </c>
       <c r="E320" s="1">
-        <v>50.56</v>
+        <v>NaN</v>
       </c>
       <c r="F320" s="1">
-        <v>47.5</v>
+        <v>NaN</v>
       </c>
       <c r="G320" s="1">
-        <v>50.37</v>
+        <v>0</v>
       </c>
       <c r="H320" s="1"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B321" s="1">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="C321" s="1">
-        <v>51.5</v>
+        <v>NaN</v>
       </c>
       <c r="D321" s="1">
-        <v>50.79</v>
+        <v>NaN</v>
       </c>
       <c r="E321" s="1">
-        <v>50.56</v>
+        <v>NaN</v>
       </c>
       <c r="F321" s="1">
-        <v>47.5</v>
+        <v>NaN</v>
       </c>
       <c r="G321" s="1">
-        <v>50.37</v>
+        <v>0</v>
       </c>
       <c r="H321" s="1"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B322" s="1">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="C322" s="1">
-        <v>51.5</v>
+        <v>NaN</v>
       </c>
       <c r="D322" s="1">
-        <v>50.79</v>
+        <v>NaN</v>
       </c>
       <c r="E322" s="1">
-        <v>50.56</v>
+        <v>NaN</v>
       </c>
       <c r="F322" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G322" s="1">
-        <v>51.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H322" s="1"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B323" s="1">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="C323" s="1">
-        <v>51.5</v>
+        <v>NaN</v>
       </c>
       <c r="D323" s="1">
-        <v>50.79</v>
+        <v>NaN</v>
       </c>
       <c r="E323" s="1">
-        <v>50.56</v>
+        <v>NaN</v>
       </c>
       <c r="F323" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G323" s="1">
-        <v>51.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H323" s="1"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B324" s="1">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="C324" s="1">
-        <v>51.5</v>
+        <v>NaN</v>
       </c>
       <c r="D324" s="1">
-        <v>50.79</v>
+        <v>NaN</v>
       </c>
       <c r="E324" s="1">
-        <v>50.56</v>
+        <v>NaN</v>
       </c>
       <c r="F324" s="1">
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="G324" s="1">
-        <v>51.08749999999999</v>
+        <v>0</v>
       </c>
       <c r="H324" s="1"/>
     </row>

--- a/Tablolar/Tablo 5.xlsx
+++ b/Tablolar/Tablo 5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="60">
   <si>
     <t/>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Program Çıktısı</t>
+  </si>
+  <si>
+    <t>16.50</t>
   </si>
   <si>
     <t>Başarı Oranı</t>
@@ -49,40 +52,145 @@
     <t>Öğrenci NO: 2*******4</t>
   </si>
   <si>
+    <t>17.50</t>
+  </si>
+  <si>
     <t>Öğrenci NO: 2*******6</t>
+  </si>
+  <si>
+    <t>18.50</t>
   </si>
   <si>
     <t>Öğrenci NO: 2*******7</t>
   </si>
   <si>
+    <t>19.50</t>
+  </si>
+  <si>
     <t>Öğrenci NO: 2******11</t>
+  </si>
+  <si>
+    <t>20.50</t>
   </si>
   <si>
     <t>Öğrenci NO: 2*******3</t>
   </si>
   <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
     <t>Öğrenci NO: 2*******5</t>
+  </si>
+  <si>
+    <t>23.50</t>
   </si>
   <si>
     <t>Öğrenci NO: 2******16</t>
   </si>
   <si>
+    <t>24.50</t>
+  </si>
+  <si>
     <t>Öğrenci NO: 2******17</t>
+  </si>
+  <si>
+    <t>25.50</t>
   </si>
   <si>
     <t>Öğrenci NO: 2*******9</t>
   </si>
   <si>
+    <t>26.50</t>
+  </si>
+  <si>
     <t>Öğrenci NO: 2******21</t>
+  </si>
+  <si>
+    <t>27.50</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>29.50</t>
+  </si>
+  <si>
+    <t>30.50</t>
   </si>
   <si>
     <t>Öğrenci NO: 2******26</t>
   </si>
   <si>
+    <t>31.50</t>
+  </si>
+  <si>
     <t>Öğrenci NO: 2******27</t>
   </si>
   <si>
+    <t>32.50</t>
+  </si>
+  <si>
     <t>Öğrenci NO: 2******19</t>
+  </si>
+  <si>
+    <t>33.50</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>35.50</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>37.50</t>
+  </si>
+  <si>
+    <t>38.50</t>
+  </si>
+  <si>
+    <t>39.50</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>41.50</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>43.50</t>
+  </si>
+  <si>
+    <t>44.50</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>46.50</t>
+  </si>
+  <si>
+    <t>47.50</t>
+  </si>
+  <si>
+    <t>48.50</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>50.50</t>
+  </si>
+  <si>
+    <t>51.50</t>
   </si>
 </sst>
 </file>
@@ -498,173 +606,173 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="C4" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="D4" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="E4" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="F4" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="C5" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="D5" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="E5" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="F5" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="C6" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="D6" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="E6" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="F6" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="C7" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="D7" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="E7" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="F7" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="C8" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="D8" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="E8" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="F8" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="C9" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="D9" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="E9" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="F9" s="1">
-        <v>NaN</v>
+        <v>16.5</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -678,173 +786,173 @@
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="C13" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="D13" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="E13" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="F13" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="C14" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="D14" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="E14" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="F14" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="C15" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="D15" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="E15" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="F15" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="C16" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="D16" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="E16" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="F16" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="C17" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="D17" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="E17" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="F17" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="C18" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="D18" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="E18" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="F18" s="1">
-        <v>NaN</v>
+        <v>17.5</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -858,173 +966,173 @@
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="C22" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="D22" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="E22" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="F22" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="C23" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="D23" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="E23" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="F23" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="C24" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="D24" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="E24" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="F24" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="C25" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="D25" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="E25" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="F25" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="C26" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="D26" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="E26" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="F26" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="C27" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="D27" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="E27" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="F27" s="1">
-        <v>NaN</v>
+        <v>18.5</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1038,173 +1146,173 @@
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="C31" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="D31" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="E31" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="F31" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="C32" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="D32" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="E32" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="F32" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="C33" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="D33" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="E33" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="F33" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="C34" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="D34" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="E34" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="F34" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="C35" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="D35" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="E35" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="F35" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="C36" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="D36" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="E36" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="F36" s="1">
-        <v>NaN</v>
+        <v>19.5</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1218,173 +1326,173 @@
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="C40" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="D40" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="E40" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="F40" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="C41" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="D41" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="E41" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="F41" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="C42" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="D42" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="E42" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="F42" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="C43" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="D43" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="E43" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="F43" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="C44" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="D44" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="E44" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="F44" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="C45" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="D45" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="E45" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="F45" s="1">
-        <v>NaN</v>
+        <v>20.5</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1398,173 +1506,173 @@
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="C49" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="D49" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="E49" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="F49" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="C50" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="D50" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="E50" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="F50" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="C51" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="D51" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="E51" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="F51" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="C52" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="D52" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="E52" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="F52" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="C53" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="D53" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="E53" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="F53" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="C54" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="D54" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="E54" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="F54" s="1">
-        <v>NaN</v>
+        <v>21.5</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="H54" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1578,173 +1686,173 @@
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
+      <c r="B57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="C58" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="D58" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="E58" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="F58" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="C59" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="D59" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="E59" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="F59" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="C60" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="D60" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="E60" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="F60" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="C61" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="D61" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="E61" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="F61" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="G61" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="C62" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="D62" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="E62" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="F62" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="C63" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="D63" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="E63" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="F63" s="1">
-        <v>NaN</v>
+        <v>22.5</v>
       </c>
       <c r="G63" s="1">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1758,173 +1866,173 @@
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0</v>
+      <c r="B66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="C67" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="D67" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="E67" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="F67" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="G67" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="C68" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="D68" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="E68" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="F68" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="G68" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="C69" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="D69" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="E69" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="F69" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="C70" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="D70" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="E70" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="F70" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="C71" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="D71" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="E71" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="F71" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="C72" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="D72" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="E72" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="F72" s="1">
-        <v>NaN</v>
+        <v>23.5</v>
       </c>
       <c r="G72" s="1">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="H72" s="1"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1938,173 +2046,173 @@
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
+      <c r="B75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="C76" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="D76" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="E76" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="F76" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="G76" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="C77" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="D77" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="E77" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="F77" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="C78" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="D78" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="E78" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="F78" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="C79" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="D79" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="E79" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="F79" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="G79" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="C80" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="D80" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="E80" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="F80" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="G80" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="C81" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="D81" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="E81" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="F81" s="1">
-        <v>NaN</v>
+        <v>24.5</v>
       </c>
       <c r="G81" s="1">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="H81" s="1"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2118,173 +2226,173 @@
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="1">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0</v>
+      <c r="B84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="C85" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="D85" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="E85" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="F85" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="G85" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="C86" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="D86" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="E86" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="F86" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="G86" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="C87" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="D87" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="E87" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="F87" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="G87" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="C88" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="D88" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="E88" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="F88" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="G88" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="C89" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="D89" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="E89" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="F89" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="G89" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B90" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="C90" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="D90" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="E90" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="F90" s="1">
-        <v>NaN</v>
+        <v>25.5</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="H90" s="1"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2298,173 +2406,173 @@
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="1">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0</v>
+      <c r="B93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B94" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="C94" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="D94" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="E94" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="F94" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="C95" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="D95" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="E95" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="F95" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B96" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="C96" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="D96" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="E96" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="F96" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="G96" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="C97" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="D97" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="E97" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="F97" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="G97" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B98" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="C98" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="D98" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="E98" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="F98" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="G98" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="C99" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="D99" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="E99" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="F99" s="1">
-        <v>NaN</v>
+        <v>26.5</v>
       </c>
       <c r="G99" s="1">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="H99" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2478,173 +2586,173 @@
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="1">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0</v>
+      <c r="B102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="C103" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="D103" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="E103" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="F103" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="G103" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B104" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="C104" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="D104" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="E104" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="F104" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="G104" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="C105" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="D105" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="E105" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="F105" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="G105" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B106" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="C106" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="D106" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="E106" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="F106" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="G106" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B107" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="C107" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="D107" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="E107" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="F107" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="G107" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="C108" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="D108" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="E108" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="F108" s="1">
-        <v>NaN</v>
+        <v>27.5</v>
       </c>
       <c r="G108" s="1">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H108" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2658,173 +2766,173 @@
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="1">
-        <v>0</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1">
-        <v>0</v>
+      <c r="B111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B112" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="C112" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="D112" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="E112" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="F112" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="G112" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B113" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="C113" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="D113" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="E113" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="F113" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="G113" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="C114" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="D114" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="E114" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="F114" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="G114" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B115" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="C115" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="D115" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="E115" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="F115" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="G115" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B116" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="C116" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="D116" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="E116" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="F116" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="G116" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B117" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="C117" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="D117" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="E117" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="F117" s="1">
-        <v>NaN</v>
+        <v>28.5</v>
       </c>
       <c r="G117" s="1">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="H117" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2838,173 +2946,173 @@
       <c r="A120" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="1">
-        <v>0</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-      <c r="F120" s="1">
-        <v>0</v>
+      <c r="B120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="C121" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="D121" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="E121" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="F121" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="G121" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="C122" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="D122" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="E122" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="F122" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="G122" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B123" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="C123" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="D123" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="E123" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="F123" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="G123" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B124" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="C124" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="D124" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="E124" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="F124" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="G124" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B125" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="C125" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="D125" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="E125" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="F125" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="G125" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B126" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="C126" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="D126" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="E126" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="F126" s="1">
-        <v>NaN</v>
+        <v>29.5</v>
       </c>
       <c r="G126" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="H126" s="1"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3018,173 +3126,173 @@
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="1">
-        <v>0</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0</v>
-      </c>
-      <c r="D129" s="1">
-        <v>0</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-      <c r="F129" s="1">
-        <v>0</v>
+      <c r="B129" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B130" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="C130" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="D130" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="E130" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="F130" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="G130" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B131" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="C131" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="D131" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="E131" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="F131" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="G131" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B132" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="C132" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="D132" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="E132" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="F132" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="G132" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="C133" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="D133" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="E133" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="F133" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="G133" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B134" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="C134" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="D134" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="E134" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="F134" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="G134" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B135" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="C135" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="D135" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="E135" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="F135" s="1">
-        <v>NaN</v>
+        <v>30.5</v>
       </c>
       <c r="G135" s="1">
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="H135" s="1"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3198,173 +3306,173 @@
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B138" s="1">
-        <v>0</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0</v>
-      </c>
-      <c r="D138" s="1">
-        <v>0</v>
-      </c>
-      <c r="E138" s="1">
-        <v>0</v>
-      </c>
-      <c r="F138" s="1">
-        <v>0</v>
+      <c r="B138" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B139" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="C139" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="D139" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="E139" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="F139" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="G139" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B140" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="C140" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="D140" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="E140" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="F140" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="G140" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B141" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="C141" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="D141" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="E141" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="F141" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="G141" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B142" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="C142" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="D142" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="E142" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="F142" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="G142" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B143" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="C143" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="D143" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="E143" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="F143" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="G143" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B144" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="C144" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="D144" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="E144" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="F144" s="1">
-        <v>NaN</v>
+        <v>31.5</v>
       </c>
       <c r="G144" s="1">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="H144" s="1"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3378,173 +3486,173 @@
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B147" s="1">
-        <v>0</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0</v>
-      </c>
-      <c r="D147" s="1">
-        <v>0</v>
-      </c>
-      <c r="E147" s="1">
-        <v>0</v>
-      </c>
-      <c r="F147" s="1">
-        <v>0</v>
+      <c r="B147" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B148" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C148" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="D148" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="E148" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="F148" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="G148" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B149" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C149" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="D149" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="E149" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="F149" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="G149" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B150" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C150" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="D150" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="E150" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="F150" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="G150" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B151" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C151" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="D151" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="E151" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="F151" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="G151" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B152" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C152" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="D152" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="E152" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="F152" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="G152" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="H152" s="1"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B153" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C153" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="D153" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="E153" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="F153" s="1">
-        <v>NaN</v>
+        <v>32.5</v>
       </c>
       <c r="G153" s="1">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="H153" s="1"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3558,173 +3666,173 @@
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="1">
-        <v>0</v>
-      </c>
-      <c r="C156" s="1">
-        <v>0</v>
-      </c>
-      <c r="D156" s="1">
-        <v>0</v>
-      </c>
-      <c r="E156" s="1">
-        <v>0</v>
-      </c>
-      <c r="F156" s="1">
-        <v>0</v>
+      <c r="B156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B157" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="C157" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="D157" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="E157" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="F157" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="G157" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="H157" s="1"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B158" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="C158" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="D158" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="E158" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="F158" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="G158" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="H158" s="1"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B159" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="C159" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="D159" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="E159" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="F159" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="G159" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B160" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="C160" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="D160" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="E160" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="F160" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="G160" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B161" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="C161" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="D161" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="E161" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="F161" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="G161" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="H161" s="1"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B162" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="C162" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="D162" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="E162" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="F162" s="1">
-        <v>NaN</v>
+        <v>33.5</v>
       </c>
       <c r="G162" s="1">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="H162" s="1"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3738,173 +3846,173 @@
       <c r="A165" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B165" s="1">
-        <v>0</v>
-      </c>
-      <c r="C165" s="1">
-        <v>0</v>
-      </c>
-      <c r="D165" s="1">
-        <v>0</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0</v>
-      </c>
-      <c r="F165" s="1">
-        <v>0</v>
+      <c r="B165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H165" s="1"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B166" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="C166" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="D166" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="E166" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="F166" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="G166" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H166" s="1"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B167" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="C167" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="D167" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="E167" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="F167" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="G167" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H167" s="1"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B168" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="C168" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="D168" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="E168" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="F168" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="G168" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H168" s="1"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B169" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="C169" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="D169" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="E169" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="F169" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="G169" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H169" s="1"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B170" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="C170" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="D170" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="E170" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="F170" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="G170" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H170" s="1"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B171" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="C171" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="D171" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="E171" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="F171" s="1">
-        <v>NaN</v>
+        <v>34.5</v>
       </c>
       <c r="G171" s="1">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="H171" s="1"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3918,173 +4026,173 @@
       <c r="A174" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B174" s="1">
-        <v>0</v>
-      </c>
-      <c r="C174" s="1">
-        <v>0</v>
-      </c>
-      <c r="D174" s="1">
-        <v>0</v>
-      </c>
-      <c r="E174" s="1">
-        <v>0</v>
-      </c>
-      <c r="F174" s="1">
-        <v>0</v>
+      <c r="B174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H174" s="1"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B175" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="C175" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="D175" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="E175" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="F175" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="G175" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="H175" s="1"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B176" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="C176" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="D176" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="E176" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="F176" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="G176" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="H176" s="1"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B177" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="C177" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="D177" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="E177" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="F177" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="G177" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="H177" s="1"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B178" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="C178" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="D178" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="E178" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="F178" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="G178" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="H178" s="1"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B179" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="C179" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="D179" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="E179" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="F179" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="G179" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="H179" s="1"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B180" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="C180" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="D180" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="E180" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="F180" s="1">
-        <v>NaN</v>
+        <v>35.5</v>
       </c>
       <c r="G180" s="1">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="H180" s="1"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4098,173 +4206,173 @@
       <c r="A183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="1">
-        <v>0</v>
-      </c>
-      <c r="C183" s="1">
-        <v>0</v>
-      </c>
-      <c r="D183" s="1">
-        <v>0</v>
-      </c>
-      <c r="E183" s="1">
-        <v>0</v>
-      </c>
-      <c r="F183" s="1">
-        <v>0</v>
+      <c r="B183" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H183" s="1"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B184" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="C184" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="D184" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="E184" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="F184" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="G184" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="H184" s="1"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B185" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="C185" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="D185" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="E185" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="F185" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="G185" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="H185" s="1"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B186" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="C186" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="D186" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="E186" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="F186" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="G186" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="H186" s="1"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B187" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="C187" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="D187" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="E187" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="F187" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="G187" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="H187" s="1"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B188" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="C188" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="D188" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="E188" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="F188" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="G188" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="H188" s="1"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B189" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="C189" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="D189" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="E189" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="F189" s="1">
-        <v>NaN</v>
+        <v>36.5</v>
       </c>
       <c r="G189" s="1">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="H189" s="1"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4278,173 +4386,173 @@
       <c r="A192" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="1">
-        <v>0</v>
-      </c>
-      <c r="C192" s="1">
-        <v>0</v>
-      </c>
-      <c r="D192" s="1">
-        <v>0</v>
-      </c>
-      <c r="E192" s="1">
-        <v>0</v>
-      </c>
-      <c r="F192" s="1">
-        <v>0</v>
+      <c r="B192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H192" s="1"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B193" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="C193" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="D193" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="E193" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="F193" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="G193" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H193" s="1"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B194" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="C194" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="D194" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="E194" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="F194" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="G194" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H194" s="1"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B195" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="C195" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="D195" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="E195" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="F195" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="G195" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H195" s="1"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B196" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="C196" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="D196" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="E196" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="F196" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="G196" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H196" s="1"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B197" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="C197" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="D197" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="E197" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="F197" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="G197" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H197" s="1"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B198" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="C198" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="D198" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="E198" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="F198" s="1">
-        <v>NaN</v>
+        <v>37.5</v>
       </c>
       <c r="G198" s="1">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="H198" s="1"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4458,173 +4566,173 @@
       <c r="A201" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="1">
-        <v>0</v>
-      </c>
-      <c r="C201" s="1">
-        <v>0</v>
-      </c>
-      <c r="D201" s="1">
-        <v>0</v>
-      </c>
-      <c r="E201" s="1">
-        <v>0</v>
-      </c>
-      <c r="F201" s="1">
-        <v>0</v>
+      <c r="B201" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H201" s="1"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B202" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="C202" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="D202" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="E202" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="F202" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="G202" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="H202" s="1"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B203" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="C203" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="D203" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="E203" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="F203" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="G203" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="H203" s="1"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B204" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="C204" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="D204" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="E204" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="F204" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="G204" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="H204" s="1"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B205" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="C205" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="D205" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="E205" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="F205" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="G205" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="H205" s="1"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B206" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="C206" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="D206" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="E206" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="F206" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="G206" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="H206" s="1"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B207" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="C207" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="D207" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="E207" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="F207" s="1">
-        <v>NaN</v>
+        <v>38.5</v>
       </c>
       <c r="G207" s="1">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="H207" s="1"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -4638,173 +4746,173 @@
       <c r="A210" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B210" s="1">
-        <v>0</v>
-      </c>
-      <c r="C210" s="1">
-        <v>0</v>
-      </c>
-      <c r="D210" s="1">
-        <v>0</v>
-      </c>
-      <c r="E210" s="1">
-        <v>0</v>
-      </c>
-      <c r="F210" s="1">
-        <v>0</v>
+      <c r="B210" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H210" s="1"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B211" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="C211" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="D211" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="E211" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="F211" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="G211" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="H211" s="1"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B212" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="C212" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="D212" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="E212" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="F212" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="G212" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="H212" s="1"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B213" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="C213" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="D213" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="E213" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="F213" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="G213" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="H213" s="1"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B214" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="C214" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="D214" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="E214" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="F214" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="G214" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="H214" s="1"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B215" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="C215" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="D215" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="E215" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="F215" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="G215" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="H215" s="1"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B216" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="C216" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="D216" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="E216" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="F216" s="1">
-        <v>NaN</v>
+        <v>39.5</v>
       </c>
       <c r="G216" s="1">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="H216" s="1"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -4818,173 +4926,173 @@
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="1">
-        <v>0</v>
-      </c>
-      <c r="C219" s="1">
-        <v>0</v>
-      </c>
-      <c r="D219" s="1">
-        <v>0</v>
-      </c>
-      <c r="E219" s="1">
-        <v>0</v>
-      </c>
-      <c r="F219" s="1">
-        <v>0</v>
+      <c r="B219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H219" s="1"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B220" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="C220" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="D220" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="E220" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="F220" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="G220" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="H220" s="1"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B221" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="C221" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="D221" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="E221" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="F221" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="G221" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="H221" s="1"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B222" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="C222" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="D222" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="E222" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="F222" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="G222" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B223" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="C223" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="D223" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="E223" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="F223" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="G223" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="H223" s="1"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B224" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="C224" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="D224" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="E224" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="F224" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="G224" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="H224" s="1"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B225" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="C225" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="D225" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="E225" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="F225" s="1">
-        <v>NaN</v>
+        <v>40.5</v>
       </c>
       <c r="G225" s="1">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="H225" s="1"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -4998,173 +5106,173 @@
       <c r="A228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B228" s="1">
-        <v>0</v>
-      </c>
-      <c r="C228" s="1">
-        <v>0</v>
-      </c>
-      <c r="D228" s="1">
-        <v>0</v>
-      </c>
-      <c r="E228" s="1">
-        <v>0</v>
-      </c>
-      <c r="F228" s="1">
-        <v>0</v>
+      <c r="B228" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H228" s="1"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B229" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="C229" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="D229" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="E229" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="F229" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="G229" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="H229" s="1"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B230" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="C230" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="D230" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="E230" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="F230" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="G230" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="H230" s="1"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B231" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="C231" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="D231" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="E231" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="F231" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="G231" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="H231" s="1"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B232" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="C232" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="D232" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="E232" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="F232" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="G232" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="H232" s="1"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B233" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="C233" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="D233" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="E233" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="F233" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="G233" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="H233" s="1"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B234" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="C234" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="D234" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="E234" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="F234" s="1">
-        <v>NaN</v>
+        <v>41.5</v>
       </c>
       <c r="G234" s="1">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="H234" s="1"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -5178,173 +5286,173 @@
       <c r="A237" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="1">
-        <v>0</v>
-      </c>
-      <c r="C237" s="1">
-        <v>0</v>
-      </c>
-      <c r="D237" s="1">
-        <v>0</v>
-      </c>
-      <c r="E237" s="1">
-        <v>0</v>
-      </c>
-      <c r="F237" s="1">
-        <v>0</v>
+      <c r="B237" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H237" s="1"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B238" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="C238" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="D238" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="E238" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="F238" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="G238" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="H238" s="1"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B239" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="C239" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="D239" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="E239" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="F239" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="G239" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="H239" s="1"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B240" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="C240" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="D240" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="E240" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="F240" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="G240" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="H240" s="1"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B241" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="C241" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="D241" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="E241" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="F241" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="G241" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="H241" s="1"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B242" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="C242" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="D242" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="E242" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="F242" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="G242" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="H242" s="1"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B243" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="C243" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="D243" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="E243" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="F243" s="1">
-        <v>NaN</v>
+        <v>42.5</v>
       </c>
       <c r="G243" s="1">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="H243" s="1"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -5358,173 +5466,173 @@
       <c r="A246" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B246" s="1">
-        <v>0</v>
-      </c>
-      <c r="C246" s="1">
-        <v>0</v>
-      </c>
-      <c r="D246" s="1">
-        <v>0</v>
-      </c>
-      <c r="E246" s="1">
-        <v>0</v>
-      </c>
-      <c r="F246" s="1">
-        <v>0</v>
+      <c r="B246" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H246" s="1"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B247" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="C247" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="D247" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="E247" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="F247" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="G247" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="H247" s="1"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B248" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="C248" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="D248" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="E248" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="F248" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="G248" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="H248" s="1"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B249" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="C249" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="D249" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="E249" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="F249" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="G249" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="H249" s="1"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B250" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="C250" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="D250" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="E250" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="F250" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="G250" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="H250" s="1"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B251" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="C251" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="D251" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="E251" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="F251" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="G251" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="H251" s="1"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B252" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="C252" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="D252" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="E252" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="F252" s="1">
-        <v>NaN</v>
+        <v>43.5</v>
       </c>
       <c r="G252" s="1">
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="H252" s="1"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -5538,173 +5646,173 @@
       <c r="A255" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B255" s="1">
-        <v>0</v>
-      </c>
-      <c r="C255" s="1">
-        <v>0</v>
-      </c>
-      <c r="D255" s="1">
-        <v>0</v>
-      </c>
-      <c r="E255" s="1">
-        <v>0</v>
-      </c>
-      <c r="F255" s="1">
-        <v>0</v>
+      <c r="B255" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H255" s="1"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B256" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="C256" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="D256" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="E256" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="F256" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="G256" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="H256" s="1"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B257" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="C257" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="D257" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="E257" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="F257" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="G257" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="H257" s="1"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B258" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="C258" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="D258" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="E258" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="F258" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="G258" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="H258" s="1"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B259" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="C259" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="D259" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="E259" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="F259" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="G259" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="H259" s="1"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B260" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="C260" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="D260" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="E260" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="F260" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="G260" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="H260" s="1"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B261" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="C261" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="D261" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="E261" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="F261" s="1">
-        <v>NaN</v>
+        <v>44.5</v>
       </c>
       <c r="G261" s="1">
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="H261" s="1"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -5718,173 +5826,173 @@
       <c r="A264" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B264" s="1">
-        <v>0</v>
-      </c>
-      <c r="C264" s="1">
-        <v>0</v>
-      </c>
-      <c r="D264" s="1">
-        <v>0</v>
-      </c>
-      <c r="E264" s="1">
-        <v>0</v>
-      </c>
-      <c r="F264" s="1">
-        <v>0</v>
+      <c r="B264" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H264" s="1"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B265" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="C265" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="D265" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="E265" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="F265" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="G265" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="H265" s="1"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B266" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="C266" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="D266" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="E266" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="F266" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="G266" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="H266" s="1"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B267" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="C267" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="D267" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="E267" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="F267" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="G267" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="H267" s="1"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B268" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="C268" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="D268" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="E268" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="F268" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="G268" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="H268" s="1"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B269" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="C269" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="D269" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="E269" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="F269" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="G269" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="H269" s="1"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B270" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="C270" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="D270" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="E270" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="F270" s="1">
-        <v>NaN</v>
+        <v>45.5</v>
       </c>
       <c r="G270" s="1">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="H270" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -5898,173 +6006,173 @@
       <c r="A273" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B273" s="1">
-        <v>0</v>
-      </c>
-      <c r="C273" s="1">
-        <v>0</v>
-      </c>
-      <c r="D273" s="1">
-        <v>0</v>
-      </c>
-      <c r="E273" s="1">
-        <v>0</v>
-      </c>
-      <c r="F273" s="1">
-        <v>0</v>
+      <c r="B273" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H273" s="1"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B274" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C274" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="D274" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="E274" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="F274" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="G274" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="H274" s="1"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B275" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C275" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="D275" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="E275" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="F275" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="G275" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="H275" s="1"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B276" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C276" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="D276" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="E276" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="F276" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="G276" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="H276" s="1"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B277" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C277" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="D277" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="E277" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="F277" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="G277" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="H277" s="1"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B278" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C278" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="D278" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="E278" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="F278" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="G278" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="H278" s="1"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B279" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="C279" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="D279" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="E279" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="F279" s="1">
-        <v>NaN</v>
+        <v>46.5</v>
       </c>
       <c r="G279" s="1">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="H279" s="1"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -6078,173 +6186,173 @@
       <c r="A282" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B282" s="1">
-        <v>0</v>
-      </c>
-      <c r="C282" s="1">
-        <v>0</v>
-      </c>
-      <c r="D282" s="1">
-        <v>0</v>
-      </c>
-      <c r="E282" s="1">
-        <v>0</v>
-      </c>
-      <c r="F282" s="1">
-        <v>0</v>
+      <c r="B282" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H282" s="1"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B283" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="C283" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="D283" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="E283" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="F283" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="G283" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="H283" s="1"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B284" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="C284" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="D284" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="E284" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="F284" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="G284" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="H284" s="1"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B285" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="C285" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="D285" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="E285" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="F285" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="G285" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="H285" s="1"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B286" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="C286" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="D286" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="E286" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="F286" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="G286" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="H286" s="1"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B287" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="C287" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="D287" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="E287" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="F287" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="G287" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="H287" s="1"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B288" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="C288" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="D288" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="E288" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="F288" s="1">
-        <v>NaN</v>
+        <v>47.5</v>
       </c>
       <c r="G288" s="1">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="H288" s="1"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -6258,173 +6366,173 @@
       <c r="A291" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B291" s="1">
-        <v>0</v>
-      </c>
-      <c r="C291" s="1">
-        <v>0</v>
-      </c>
-      <c r="D291" s="1">
-        <v>0</v>
-      </c>
-      <c r="E291" s="1">
-        <v>0</v>
-      </c>
-      <c r="F291" s="1">
-        <v>0</v>
+      <c r="B291" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H291" s="1"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B292" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="C292" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="D292" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="E292" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="F292" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="G292" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="H292" s="1"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B293" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="C293" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="D293" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="E293" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="F293" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="G293" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="H293" s="1"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B294" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="C294" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="D294" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="E294" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="F294" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="G294" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="H294" s="1"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B295" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="C295" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="D295" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="E295" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="F295" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="G295" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="H295" s="1"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B296" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="C296" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="D296" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="E296" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="F296" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="G296" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="H296" s="1"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B297" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="C297" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="D297" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="E297" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="F297" s="1">
-        <v>NaN</v>
+        <v>48.5</v>
       </c>
       <c r="G297" s="1">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="H297" s="1"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -6438,173 +6546,173 @@
       <c r="A300" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="1">
-        <v>0</v>
-      </c>
-      <c r="C300" s="1">
-        <v>0</v>
-      </c>
-      <c r="D300" s="1">
-        <v>0</v>
-      </c>
-      <c r="E300" s="1">
-        <v>0</v>
-      </c>
-      <c r="F300" s="1">
-        <v>0</v>
+      <c r="B300" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H300" s="1"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B301" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="C301" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="D301" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="E301" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="F301" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="G301" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="H301" s="1"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B302" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="C302" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="D302" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="E302" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="F302" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="G302" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="H302" s="1"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B303" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="C303" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="D303" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="E303" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="F303" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="G303" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="H303" s="1"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B304" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="C304" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="D304" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="E304" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="F304" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="G304" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="H304" s="1"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B305" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="C305" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="D305" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="E305" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="F305" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="G305" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="H305" s="1"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B306" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="C306" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="D306" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="E306" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="F306" s="1">
-        <v>NaN</v>
+        <v>49.5</v>
       </c>
       <c r="G306" s="1">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="H306" s="1"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -6618,173 +6726,173 @@
       <c r="A309" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="1">
-        <v>0</v>
-      </c>
-      <c r="C309" s="1">
-        <v>0</v>
-      </c>
-      <c r="D309" s="1">
-        <v>0</v>
-      </c>
-      <c r="E309" s="1">
-        <v>0</v>
-      </c>
-      <c r="F309" s="1">
-        <v>0</v>
+      <c r="B309" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H309" s="1"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B310" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="C310" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="D310" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="E310" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="F310" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="G310" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="H310" s="1"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B311" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="C311" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="D311" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="E311" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="F311" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="G311" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="H311" s="1"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B312" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="C312" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="D312" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="E312" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="F312" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="G312" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="H312" s="1"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B313" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="C313" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="D313" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="E313" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="F313" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="G313" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="H313" s="1"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B314" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="C314" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="D314" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="E314" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="F314" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="G314" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="H314" s="1"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B315" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="C315" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="D315" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="E315" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="F315" s="1">
-        <v>NaN</v>
+        <v>50.5</v>
       </c>
       <c r="G315" s="1">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="H315" s="1"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -6798,167 +6906,167 @@
       <c r="A318" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B318" s="1">
-        <v>0</v>
-      </c>
-      <c r="C318" s="1">
-        <v>0</v>
-      </c>
-      <c r="D318" s="1">
-        <v>0</v>
-      </c>
-      <c r="E318" s="1">
-        <v>0</v>
-      </c>
-      <c r="F318" s="1">
-        <v>0</v>
+      <c r="B318" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H318" s="1"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B319" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="C319" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="D319" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="E319" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="F319" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="G319" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="H319" s="1"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B320" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="C320" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="D320" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="E320" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="F320" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="G320" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="H320" s="1"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B321" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="C321" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="D321" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="E321" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="F321" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="G321" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="H321" s="1"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B322" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="C322" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="D322" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="E322" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="F322" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="G322" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="H322" s="1"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B323" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="C323" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="D323" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="E323" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="F323" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="G323" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="H323" s="1"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B324" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="C324" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="D324" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="E324" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="F324" s="1">
-        <v>NaN</v>
+        <v>51.5</v>
       </c>
       <c r="G324" s="1">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="H324" s="1"/>
     </row>
